--- a/images/测试结果.xlsx
+++ b/images/测试结果.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="68">
   <si>
     <t>√</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -347,6 +347,14 @@
 没去掉conv的bias</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -665,47 +673,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1011,10 +1019,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z84"/>
+  <dimension ref="A1:Z86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.25"/>
@@ -1039,81 +1047,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="66" t="s">
+      <c r="E1" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="66" t="s">
+      <c r="F1" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="66" t="s">
+      <c r="G1" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="66" t="s">
+      <c r="H1" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="66" t="s">
+      <c r="I1" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="66" t="s">
+      <c r="J1" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="66" t="s">
+      <c r="K1" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="66" t="s">
+      <c r="L1" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="66" t="s">
+      <c r="M1" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="66" t="s">
+      <c r="N1" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="62" t="s">
+      <c r="O1" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="68" t="s">
+      <c r="P1" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="70"/>
-      <c r="W1" s="68"/>
-      <c r="X1" s="69"/>
-      <c r="Y1" s="69"/>
-      <c r="Z1" s="69"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="59"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="63"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="69"/>
       <c r="P2" s="45" t="s">
         <v>20</v>
       </c>
@@ -1141,7 +1149,7 @@
       <c r="Z2" s="35"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="61" t="s">
         <v>65</v>
       </c>
       <c r="B3" s="22">
@@ -1681,7 +1689,7 @@
       <c r="Z10" s="14"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="72">
+      <c r="A11" s="62">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="B11" s="22">
@@ -3340,7 +3348,7 @@
         <v>625</v>
       </c>
       <c r="Q35" s="4">
-        <f t="shared" ref="Q35:Q66" si="3">1-(P35+0.0000001)/9723</f>
+        <f t="shared" ref="Q35:Q68" si="3">1-(P35+0.0000001)/9723</f>
         <v>0.93571942814974807</v>
       </c>
       <c r="R35" s="53">
@@ -3353,11 +3361,11 @@
         <v>0</v>
       </c>
       <c r="U35" s="4">
-        <f t="shared" ref="U35:U66" si="4">1-(T35+0.0000001)/(S35+0.0000001)</f>
+        <f t="shared" ref="U35:U68" si="4">1-(T35+0.0000001)/(S35+0.0000001)</f>
         <v>0.99999999997549016</v>
       </c>
       <c r="V35" s="5">
-        <f t="shared" ref="V35:V66" si="5">(S35-T35+0.0000001)/9723</f>
+        <f t="shared" ref="V35:V68" si="5">(S35-T35+0.0000001)/9723</f>
         <v>0.41962357298159003</v>
       </c>
       <c r="W35" s="4"/>
@@ -3570,7 +3578,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="C39" s="2">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D39" s="24" t="s">
         <v>4</v>
@@ -3594,7 +3602,7 @@
         <v>6</v>
       </c>
       <c r="K39" s="22" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="L39" s="22"/>
       <c r="M39" s="22"/>
@@ -3603,28 +3611,28 @@
         <v>6</v>
       </c>
       <c r="P39" s="46">
-        <v>408</v>
+        <v>497</v>
       </c>
       <c r="Q39" s="17">
         <f t="shared" si="3"/>
-        <v>0.95803764269258462</v>
+        <v>0.94888408926257328</v>
       </c>
       <c r="R39" s="52">
         <v>0.95</v>
       </c>
       <c r="S39" s="46">
-        <v>5243</v>
+        <v>5079</v>
       </c>
       <c r="T39" s="50">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="U39" s="30">
         <f t="shared" si="4"/>
-        <v>0.9975205035094884</v>
+        <v>0.99960622167750335</v>
       </c>
       <c r="V39" s="31">
         <f t="shared" si="5"/>
-        <v>0.53789982516712942</v>
+        <v>0.52216394118070553</v>
       </c>
       <c r="W39" s="17"/>
       <c r="X39" s="17"/>
@@ -3637,7 +3645,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="C40" s="2">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="D40" s="25" t="s">
         <v>4</v>
@@ -3659,7 +3667,7 @@
         <v>6</v>
       </c>
       <c r="K40" s="19" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="L40" s="19"/>
       <c r="M40" s="19"/>
@@ -3668,28 +3676,28 @@
         <v>6</v>
       </c>
       <c r="P40" s="44">
-        <v>388</v>
+        <v>544</v>
       </c>
       <c r="Q40" s="4">
         <f t="shared" si="3"/>
-        <v>0.96009462099146359</v>
+        <v>0.94405019026020776</v>
       </c>
       <c r="R40" s="53">
         <v>0.95</v>
       </c>
       <c r="S40" s="44">
-        <v>6190</v>
+        <v>6024</v>
       </c>
       <c r="T40" s="49">
         <v>6</v>
       </c>
       <c r="U40" s="6">
         <f t="shared" si="4"/>
-        <v>0.99903069465268124</v>
+        <v>0.99900398404716129</v>
       </c>
       <c r="V40" s="33">
         <f t="shared" si="5"/>
-        <v>0.63601769002365527</v>
+        <v>0.61894477014296001</v>
       </c>
       <c r="W40" s="4"/>
       <c r="X40" s="4"/>
@@ -3702,7 +3710,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="C41" s="2">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="D41" s="25" t="s">
         <v>4</v>
@@ -3726,7 +3734,7 @@
         <v>6</v>
       </c>
       <c r="K41" s="19" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="L41" s="19"/>
       <c r="M41" s="19"/>
@@ -3735,28 +3743,28 @@
         <v>6</v>
       </c>
       <c r="P41" s="44">
-        <v>387</v>
+        <v>234</v>
       </c>
       <c r="Q41" s="4">
         <f t="shared" si="3"/>
-        <v>0.96019746990640753</v>
+        <v>0.97593335389283142</v>
       </c>
       <c r="R41" s="53">
         <v>0.95</v>
       </c>
       <c r="S41" s="44">
-        <v>6342</v>
+        <v>8053</v>
       </c>
       <c r="T41" s="44">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="U41" s="4">
         <f t="shared" si="4"/>
-        <v>0.99810785239675015</v>
+        <v>0.99937911336148788</v>
       </c>
       <c r="V41" s="5">
         <f t="shared" si="5"/>
-        <v>0.65103363160547156</v>
+        <v>0.82772806747917305</v>
       </c>
       <c r="W41" s="4"/>
       <c r="X41" s="4"/>
@@ -3764,18 +3772,18 @@
       <c r="Z41" s="5"/>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A42" s="59"/>
+      <c r="A42" s="58"/>
       <c r="B42" s="1">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="C42" s="11">
-        <v>180</v>
+      <c r="C42" s="2">
+        <v>200</v>
       </c>
       <c r="D42" s="25" t="s">
         <v>4</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="F42" s="19" t="s">
         <v>0</v>
@@ -3783,7 +3791,7 @@
       <c r="G42" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="H42" s="29" t="s">
+      <c r="H42" s="28" t="s">
         <v>18</v>
       </c>
       <c r="I42" s="28" t="s">
@@ -3793,7 +3801,7 @@
         <v>6</v>
       </c>
       <c r="K42" s="19" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="L42" s="19"/>
       <c r="M42" s="19"/>
@@ -3802,28 +3810,28 @@
         <v>6</v>
       </c>
       <c r="P42" s="44">
-        <v>388</v>
+        <v>241</v>
       </c>
       <c r="Q42" s="4">
-        <f t="shared" si="3"/>
-        <v>0.96009462099146359</v>
+        <f t="shared" ref="Q42" si="6">1-(P42+0.0000001)/9723</f>
+        <v>0.97521341148822382</v>
       </c>
       <c r="R42" s="53">
         <v>0.95</v>
       </c>
       <c r="S42" s="44">
-        <v>5606</v>
+        <v>7966</v>
       </c>
       <c r="T42" s="44">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="U42" s="4">
-        <f t="shared" si="4"/>
-        <v>0.99768105599361967</v>
+        <f t="shared" ref="U42" si="7">1-(T42+0.0000001)/(S42+0.0000001)</f>
+        <v>0.99924679888276113</v>
       </c>
       <c r="V42" s="5">
-        <f t="shared" si="5"/>
-        <v>0.57523398129178238</v>
+        <f t="shared" ref="V42" si="8">(S42-T42+0.0000001)/9723</f>
+        <v>0.81867736296410576</v>
       </c>
       <c r="W42" s="4"/>
       <c r="X42" s="4"/>
@@ -3831,81 +3839,79 @@
       <c r="Z42" s="5"/>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A43" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43" s="15">
+      <c r="A43" s="58"/>
+      <c r="B43" s="1">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="C43" s="2">
-        <v>60</v>
-      </c>
-      <c r="D43" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="D43" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="F43" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="G43" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="H43" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="I43" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="J43" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="K43" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="L43" s="22"/>
-      <c r="M43" s="22"/>
-      <c r="N43" s="22"/>
-      <c r="O43" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="P43" s="46">
-        <v>3584</v>
-      </c>
-      <c r="Q43" s="17">
-        <f t="shared" si="3"/>
-        <v>0.63138948883060786</v>
-      </c>
-      <c r="R43" s="52">
-        <v>0.77</v>
-      </c>
-      <c r="S43" s="46">
-        <v>487</v>
-      </c>
-      <c r="T43" s="46">
-        <v>0</v>
-      </c>
-      <c r="U43" s="17">
-        <f t="shared" si="4"/>
-        <v>0.99999999979466114</v>
-      </c>
-      <c r="V43" s="18">
-        <f t="shared" si="5"/>
-        <v>5.0087421587987249E-2</v>
-      </c>
-      <c r="W43" s="17"/>
-      <c r="X43" s="17"/>
-      <c r="Y43" s="17"/>
-      <c r="Z43" s="18"/>
+      <c r="G43" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="I43" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="J43" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="K43" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="L43" s="19"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="19"/>
+      <c r="O43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="P43" s="44">
+        <v>211</v>
+      </c>
+      <c r="Q43" s="4">
+        <f t="shared" ref="Q43" si="9">1-(P43+0.0000001)/9723</f>
+        <v>0.97829887893654222</v>
+      </c>
+      <c r="R43" s="53">
+        <v>0.95</v>
+      </c>
+      <c r="S43" s="44">
+        <v>8261</v>
+      </c>
+      <c r="T43" s="44">
+        <v>7</v>
+      </c>
+      <c r="U43" s="4">
+        <f t="shared" ref="U43" si="10">1-(T43+0.0000001)/(S43+0.0000001)</f>
+        <v>0.99915264494614264</v>
+      </c>
+      <c r="V43" s="5">
+        <f t="shared" ref="V43" si="11">(S43-T43+0.0000001)/9723</f>
+        <v>0.84891494395762634</v>
+      </c>
+      <c r="W43" s="4"/>
+      <c r="X43" s="4"/>
+      <c r="Y43" s="4"/>
+      <c r="Z43" s="5"/>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A44" s="58"/>
+      <c r="A44" s="59"/>
       <c r="B44" s="1">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="C44" s="2">
-        <v>100</v>
+      <c r="C44" s="11">
+        <v>300</v>
       </c>
       <c r="D44" s="25" t="s">
         <v>4</v>
@@ -3913,21 +3919,23 @@
       <c r="E44" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F44" s="19"/>
+      <c r="F44" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="G44" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="H44" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I44" s="19" t="s">
-        <v>62</v>
+      <c r="H44" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I44" s="28" t="s">
+        <v>6</v>
       </c>
       <c r="J44" s="19" t="s">
         <v>6</v>
       </c>
       <c r="K44" s="19" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="L44" s="19"/>
       <c r="M44" s="19"/>
@@ -3936,28 +3944,28 @@
         <v>6</v>
       </c>
       <c r="P44" s="44">
-        <v>677</v>
+        <v>213</v>
       </c>
       <c r="Q44" s="4">
         <f t="shared" si="3"/>
-        <v>0.93037128457266272</v>
+        <v>0.97809318110665433</v>
       </c>
       <c r="R44" s="53">
-        <v>0.77</v>
+        <v>0.95</v>
       </c>
       <c r="S44" s="44">
-        <v>3732</v>
+        <v>8247</v>
       </c>
       <c r="T44" s="44">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="U44" s="4">
         <f t="shared" si="4"/>
-        <v>0.99919614145232594</v>
+        <v>0.99927246270159731</v>
       </c>
       <c r="V44" s="5">
         <f t="shared" si="5"/>
-        <v>0.38352360383626449</v>
+        <v>0.84757790806335498</v>
       </c>
       <c r="W44" s="4"/>
       <c r="X44" s="4"/>
@@ -3965,2477 +3973,2477 @@
       <c r="Z44" s="5"/>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A45" s="58"/>
-      <c r="B45" s="1">
+      <c r="A45" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="15">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="C45" s="2">
+        <v>60</v>
+      </c>
+      <c r="D45" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F45" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G45" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="H45" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I45" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="J45" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="K45" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="L45" s="22"/>
+      <c r="M45" s="22"/>
+      <c r="N45" s="22"/>
+      <c r="O45" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="P45" s="46">
+        <v>3584</v>
+      </c>
+      <c r="Q45" s="17">
+        <f t="shared" si="3"/>
+        <v>0.63138948883060786</v>
+      </c>
+      <c r="R45" s="52">
+        <v>0.77</v>
+      </c>
+      <c r="S45" s="46">
+        <v>487</v>
+      </c>
+      <c r="T45" s="46">
+        <v>0</v>
+      </c>
+      <c r="U45" s="17">
+        <f t="shared" si="4"/>
+        <v>0.99999999979466114</v>
+      </c>
+      <c r="V45" s="18">
+        <f t="shared" si="5"/>
+        <v>5.0087421587987249E-2</v>
+      </c>
+      <c r="W45" s="17"/>
+      <c r="X45" s="17"/>
+      <c r="Y45" s="17"/>
+      <c r="Z45" s="18"/>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A46" s="58"/>
+      <c r="B46" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C46" s="2">
+        <v>100</v>
+      </c>
+      <c r="D46" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H46" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I46" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="J46" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="K46" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="L46" s="19"/>
+      <c r="M46" s="19"/>
+      <c r="N46" s="19"/>
+      <c r="O46" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="P46" s="44">
+        <v>677</v>
+      </c>
+      <c r="Q46" s="4">
+        <f t="shared" si="3"/>
+        <v>0.93037128457266272</v>
+      </c>
+      <c r="R46" s="53">
+        <v>0.77</v>
+      </c>
+      <c r="S46" s="44">
+        <v>3732</v>
+      </c>
+      <c r="T46" s="44">
+        <v>3</v>
+      </c>
+      <c r="U46" s="4">
+        <f t="shared" si="4"/>
+        <v>0.99919614145232594</v>
+      </c>
+      <c r="V46" s="5">
+        <f t="shared" si="5"/>
+        <v>0.38352360383626449</v>
+      </c>
+      <c r="W46" s="4"/>
+      <c r="X46" s="4"/>
+      <c r="Y46" s="4"/>
+      <c r="Z46" s="5"/>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A47" s="58"/>
+      <c r="B47" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C47" s="2">
         <v>140</v>
       </c>
-      <c r="D45" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" s="19" t="s">
+      <c r="D47" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F45" s="19" t="s">
+      <c r="F47" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="G45" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H45" s="19" t="s">
+      <c r="G47" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H47" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="I45" s="19" t="s">
+      <c r="I47" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="J45" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="K45" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="L45" s="19"/>
-      <c r="M45" s="19"/>
-      <c r="N45" s="19"/>
-      <c r="O45" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="P45" s="44">
+      <c r="J47" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="K47" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="L47" s="19"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="19"/>
+      <c r="O47" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="P47" s="44">
         <v>588</v>
       </c>
-      <c r="Q45" s="4">
+      <c r="Q47" s="4">
         <f t="shared" si="3"/>
         <v>0.93952483800267406</v>
       </c>
-      <c r="R45" s="53">
+      <c r="R47" s="53">
         <v>0.77</v>
       </c>
-      <c r="S45" s="44">
+      <c r="S47" s="44">
         <v>4588</v>
       </c>
-      <c r="T45" s="49">
+      <c r="T47" s="49">
         <v>3</v>
       </c>
-      <c r="U45" s="6">
+      <c r="U47" s="6">
         <f t="shared" si="4"/>
         <v>0.99934612029208048</v>
       </c>
-      <c r="V45" s="5">
+      <c r="V47" s="5">
         <f t="shared" si="5"/>
         <v>0.47156227502828346</v>
       </c>
-      <c r="W45" s="4"/>
-      <c r="X45" s="4"/>
-      <c r="Y45" s="4"/>
-      <c r="Z45" s="5"/>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A46" s="59"/>
-      <c r="B46" s="23">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C46" s="11">
+      <c r="W47" s="4"/>
+      <c r="X47" s="4"/>
+      <c r="Y47" s="4"/>
+      <c r="Z47" s="5"/>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A48" s="59"/>
+      <c r="B48" s="23">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C48" s="11">
         <v>180</v>
       </c>
-      <c r="D46" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="E46" s="23" t="s">
+      <c r="D48" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="F46" s="23" t="s">
+      <c r="F48" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="G46" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="H46" s="23" t="s">
+      <c r="G48" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H48" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="I46" s="23" t="s">
+      <c r="I48" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="J46" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="K46" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="L46" s="23"/>
-      <c r="M46" s="23"/>
-      <c r="N46" s="23"/>
-      <c r="O46" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="P46" s="43">
+      <c r="J48" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="K48" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="L48" s="23"/>
+      <c r="M48" s="23"/>
+      <c r="N48" s="23"/>
+      <c r="O48" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="P48" s="43">
         <v>625</v>
       </c>
-      <c r="Q46" s="12">
+      <c r="Q48" s="12">
         <f t="shared" si="3"/>
         <v>0.93571942814974807</v>
       </c>
-      <c r="R46" s="54">
+      <c r="R48" s="54">
         <v>0.77</v>
       </c>
-      <c r="S46" s="43">
+      <c r="S48" s="43">
         <v>5842</v>
       </c>
-      <c r="T46" s="47">
+      <c r="T48" s="47">
         <v>9</v>
       </c>
-      <c r="U46" s="20">
+      <c r="U48" s="20">
         <f t="shared" si="4"/>
         <v>0.998459431684381</v>
       </c>
-      <c r="V46" s="13">
+      <c r="V48" s="13">
         <f t="shared" si="5"/>
         <v>0.59991772087832973</v>
       </c>
-      <c r="W46" s="12"/>
-      <c r="X46" s="12"/>
-      <c r="Y46" s="12"/>
-      <c r="Z46" s="14"/>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A47" s="57" t="s">
+      <c r="W48" s="12"/>
+      <c r="X48" s="12"/>
+      <c r="Y48" s="12"/>
+      <c r="Z48" s="14"/>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A49" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="15">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C47" s="2">
+      <c r="B49" s="15">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C49" s="2">
         <v>60</v>
       </c>
-      <c r="D47" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E47" s="22" t="s">
+      <c r="D49" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="F47" s="22" t="s">
+      <c r="F49" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="G47" s="22" t="s">
+      <c r="G49" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="H47" s="22" t="s">
+      <c r="H49" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="I47" s="22" t="s">
+      <c r="I49" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="J47" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="K47" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="L47" s="22"/>
-      <c r="M47" s="22"/>
-      <c r="N47" s="22"/>
-      <c r="O47" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="P47" s="46">
+      <c r="J49" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="K49" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="L49" s="22"/>
+      <c r="M49" s="22"/>
+      <c r="N49" s="22"/>
+      <c r="O49" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="P49" s="46">
         <v>348</v>
       </c>
-      <c r="Q47" s="17">
+      <c r="Q49" s="17">
         <f t="shared" si="3"/>
         <v>0.96420857758922141</v>
       </c>
-      <c r="R47" s="52">
+      <c r="R49" s="52">
         <v>0.87</v>
       </c>
-      <c r="S47" s="46">
+      <c r="S49" s="46">
         <v>3792</v>
       </c>
-      <c r="T47" s="46">
+      <c r="T49" s="46">
         <v>3</v>
       </c>
-      <c r="U47" s="17">
+      <c r="U49" s="17">
         <f t="shared" si="4"/>
         <v>0.99920886073314319</v>
       </c>
-      <c r="V47" s="18">
+      <c r="V49" s="18">
         <f t="shared" si="5"/>
         <v>0.38969453873290133</v>
       </c>
-      <c r="W47" s="17"/>
-      <c r="X47" s="17"/>
-      <c r="Y47" s="17"/>
-      <c r="Z47" s="18"/>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A48" s="58"/>
-      <c r="B48" s="1">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C48" s="2">
+      <c r="W49" s="17"/>
+      <c r="X49" s="17"/>
+      <c r="Y49" s="17"/>
+      <c r="Z49" s="18"/>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A50" s="58"/>
+      <c r="B50" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C50" s="2">
         <v>100</v>
       </c>
-      <c r="D48" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" s="19" t="s">
+      <c r="D50" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E50" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F48" s="19" t="s">
+      <c r="F50" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="G48" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H48" s="19" t="s">
+      <c r="G50" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H50" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="I48" s="19" t="s">
+      <c r="I50" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="J48" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="K48" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="L48" s="19"/>
-      <c r="M48" s="19"/>
-      <c r="N48" s="19"/>
-      <c r="O48" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="P48" s="44">
+      <c r="J50" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="K50" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="L50" s="19"/>
+      <c r="M50" s="19"/>
+      <c r="N50" s="19"/>
+      <c r="O50" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="P50" s="44">
         <v>424</v>
       </c>
-      <c r="Q48" s="4">
+      <c r="Q50" s="4">
         <f t="shared" si="3"/>
         <v>0.95639206005348143</v>
       </c>
-      <c r="R48" s="53">
+      <c r="R50" s="53">
         <v>0.87</v>
       </c>
-      <c r="S48" s="44">
+      <c r="S50" s="44">
         <v>5328</v>
       </c>
-      <c r="T48" s="49">
+      <c r="T50" s="49">
         <v>34</v>
       </c>
-      <c r="U48" s="6">
+      <c r="U50" s="6">
         <f t="shared" si="4"/>
         <v>0.99361861859996958</v>
       </c>
-      <c r="V48" s="5">
+      <c r="V50" s="5">
         <f t="shared" si="5"/>
         <v>0.54448215572354208</v>
       </c>
-      <c r="W48" s="4"/>
-      <c r="X48" s="4"/>
-      <c r="Y48" s="4"/>
-      <c r="Z48" s="5"/>
-    </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A49" s="58"/>
-      <c r="B49" s="19">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C49" s="2">
+      <c r="W50" s="4"/>
+      <c r="X50" s="4"/>
+      <c r="Y50" s="4"/>
+      <c r="Z50" s="5"/>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A51" s="58"/>
+      <c r="B51" s="19">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C51" s="2">
         <v>140</v>
       </c>
-      <c r="D49" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="E49" s="19" t="s">
+      <c r="D51" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F49" s="19" t="s">
+      <c r="F51" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="G49" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H49" s="19" t="s">
+      <c r="G51" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H51" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="I49" s="19" t="s">
+      <c r="I51" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="J49" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="K49" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="L49" s="19"/>
-      <c r="M49" s="19"/>
-      <c r="N49" s="19"/>
-      <c r="O49" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="P49" s="44">
+      <c r="J51" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="K51" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="L51" s="19"/>
+      <c r="M51" s="19"/>
+      <c r="N51" s="19"/>
+      <c r="O51" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="P51" s="44">
         <v>387</v>
       </c>
-      <c r="Q49" s="4">
+      <c r="Q51" s="4">
         <f t="shared" si="3"/>
         <v>0.96019746990640753</v>
       </c>
-      <c r="R49" s="53">
+      <c r="R51" s="53">
         <v>0.87</v>
       </c>
-      <c r="S49" s="44">
+      <c r="S51" s="44">
         <v>6963</v>
       </c>
-      <c r="T49" s="49">
+      <c r="T51" s="49">
         <v>3</v>
       </c>
-      <c r="U49" s="6">
+      <c r="U51" s="6">
         <f t="shared" si="4"/>
         <v>0.9995691512135636</v>
       </c>
-      <c r="V49" s="33">
+      <c r="V51" s="33">
         <f t="shared" si="5"/>
         <v>0.71582844802015833</v>
       </c>
-      <c r="W49" s="4"/>
-      <c r="X49" s="4"/>
-      <c r="Y49" s="4"/>
-      <c r="Z49" s="5"/>
-    </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A50" s="59"/>
-      <c r="B50" s="23">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C50" s="11">
+      <c r="W51" s="4"/>
+      <c r="X51" s="4"/>
+      <c r="Y51" s="4"/>
+      <c r="Z51" s="5"/>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A52" s="59"/>
+      <c r="B52" s="23">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C52" s="11">
         <v>180</v>
       </c>
-      <c r="D50" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="E50" s="29" t="s">
+      <c r="D52" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="F50" s="29" t="s">
+      <c r="F52" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="G50" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="H50" s="29" t="s">
+      <c r="G52" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="I50" s="29" t="s">
+      <c r="I52" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="J50" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="K50" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="L50" s="29"/>
-      <c r="M50" s="29"/>
-      <c r="N50" s="29"/>
-      <c r="O50" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="P50" s="43">
+      <c r="J52" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="K52" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="L52" s="29"/>
+      <c r="M52" s="29"/>
+      <c r="N52" s="29"/>
+      <c r="O52" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="P52" s="43">
         <v>323</v>
       </c>
-      <c r="Q50" s="12">
+      <c r="Q52" s="12">
         <f t="shared" si="3"/>
         <v>0.96677980046282008</v>
       </c>
-      <c r="R50" s="54">
+      <c r="R52" s="54">
         <v>0.87</v>
       </c>
-      <c r="S50" s="43">
+      <c r="S52" s="43">
         <v>7026</v>
       </c>
-      <c r="T50" s="47">
+      <c r="T52" s="47">
         <v>11</v>
       </c>
-      <c r="U50" s="20">
+      <c r="U52" s="20">
         <f t="shared" si="4"/>
         <v>0.99843438654997962</v>
       </c>
-      <c r="V50" s="13">
+      <c r="V52" s="13">
         <f t="shared" si="5"/>
         <v>0.7214851383420755</v>
       </c>
-      <c r="W50" s="12"/>
-      <c r="X50" s="12"/>
-      <c r="Y50" s="12"/>
-      <c r="Z50" s="14"/>
-    </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A51" s="57" t="s">
+      <c r="W52" s="12"/>
+      <c r="X52" s="12"/>
+      <c r="Y52" s="12"/>
+      <c r="Z52" s="14"/>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A53" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="B51" s="15">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C51" s="2">
+      <c r="B53" s="15">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C53" s="2">
         <v>60</v>
       </c>
-      <c r="D51" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E51" s="22" t="s">
+      <c r="D53" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="F51" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="G51" s="32" t="s">
+      <c r="F53" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G53" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="H51" s="32" t="s">
+      <c r="H53" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="I51" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="J51" s="32" t="s">
+      <c r="I53" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="J53" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="K51" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="L51" s="32"/>
-      <c r="M51" s="32"/>
-      <c r="N51" s="32"/>
-      <c r="O51" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="P51" s="46">
+      <c r="K53" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="L53" s="32"/>
+      <c r="M53" s="32"/>
+      <c r="N53" s="32"/>
+      <c r="O53" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="P53" s="46">
         <v>343</v>
       </c>
-      <c r="Q51" s="17">
+      <c r="Q53" s="17">
         <f t="shared" si="3"/>
         <v>0.96472282216394112</v>
       </c>
-      <c r="R51" s="52">
+      <c r="R53" s="52">
         <v>0.97</v>
       </c>
-      <c r="S51" s="46">
+      <c r="S53" s="46">
         <v>4098</v>
       </c>
-      <c r="T51" s="50">
+      <c r="T53" s="50">
         <v>0</v>
       </c>
-      <c r="U51" s="30">
+      <c r="U53" s="30">
         <f t="shared" si="4"/>
         <v>0.99999999997559785</v>
       </c>
-      <c r="V51" s="18">
+      <c r="V53" s="18">
         <f t="shared" si="5"/>
         <v>0.42147485345058106</v>
       </c>
-      <c r="W51" s="17"/>
-      <c r="X51" s="17"/>
-      <c r="Y51" s="17"/>
-      <c r="Z51" s="18"/>
-    </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A52" s="58"/>
-      <c r="B52" s="1">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C52" s="2">
+      <c r="W53" s="17"/>
+      <c r="X53" s="17"/>
+      <c r="Y53" s="17"/>
+      <c r="Z53" s="18"/>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A54" s="58"/>
+      <c r="B54" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C54" s="2">
         <v>100</v>
       </c>
-      <c r="D52" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="19" t="s">
+      <c r="D54" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F52" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="G52" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="H52" s="28" t="s">
+      <c r="F54" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G54" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="H54" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="I52" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="J52" s="28" t="s">
+      <c r="I54" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="J54" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="K52" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="L52" s="28"/>
-      <c r="M52" s="28"/>
-      <c r="N52" s="28"/>
-      <c r="O52" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="P52" s="44">
+      <c r="K54" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="L54" s="28"/>
+      <c r="M54" s="28"/>
+      <c r="N54" s="28"/>
+      <c r="O54" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="P54" s="44">
         <v>330</v>
       </c>
-      <c r="Q52" s="4">
+      <c r="Q54" s="4">
         <f t="shared" si="3"/>
         <v>0.96605985805821248</v>
       </c>
-      <c r="R52" s="53">
+      <c r="R54" s="53">
         <v>0.97</v>
       </c>
-      <c r="S52" s="44">
+      <c r="S54" s="44">
         <v>5930</v>
       </c>
-      <c r="T52" s="44">
-        <v>4</v>
-      </c>
-      <c r="U52" s="4">
+      <c r="T54" s="44">
+        <v>4</v>
+      </c>
+      <c r="U54" s="4">
         <f t="shared" si="4"/>
         <v>0.99932546372682418</v>
       </c>
-      <c r="V52" s="5">
+      <c r="V54" s="5">
         <f t="shared" si="5"/>
         <v>0.60948266996811684</v>
       </c>
-      <c r="W52" s="4"/>
-      <c r="X52" s="4"/>
-      <c r="Y52" s="4"/>
-      <c r="Z52" s="5"/>
-    </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A53" s="58"/>
-      <c r="B53" s="1">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C53" s="2">
+      <c r="W54" s="4"/>
+      <c r="X54" s="4"/>
+      <c r="Y54" s="4"/>
+      <c r="Z54" s="5"/>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A55" s="58"/>
+      <c r="B55" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C55" s="2">
         <v>140</v>
       </c>
-      <c r="D53" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="E53" s="19" t="s">
+      <c r="D55" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E55" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F53" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="G53" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="H53" s="28" t="s">
+      <c r="F55" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G55" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="H55" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="I53" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="J53" s="28" t="s">
+      <c r="I55" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="J55" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="K53" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="L53" s="28"/>
-      <c r="M53" s="28"/>
-      <c r="N53" s="28"/>
-      <c r="O53" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="P53" s="44">
+      <c r="K55" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="L55" s="28"/>
+      <c r="M55" s="28"/>
+      <c r="N55" s="28"/>
+      <c r="O55" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="P55" s="44">
         <v>292</v>
       </c>
-      <c r="Q53" s="4">
+      <c r="Q55" s="4">
         <f t="shared" si="3"/>
         <v>0.96996811682608253</v>
       </c>
-      <c r="R53" s="53">
+      <c r="R55" s="53">
         <v>0.97</v>
       </c>
-      <c r="S53" s="44">
+      <c r="S55" s="44">
         <v>6856</v>
       </c>
-      <c r="T53" s="44">
-        <v>4</v>
-      </c>
-      <c r="U53" s="4">
+      <c r="T55" s="44">
+        <v>4</v>
+      </c>
+      <c r="U55" s="4">
         <f t="shared" si="4"/>
         <v>0.99941656941366075</v>
       </c>
-      <c r="V53" s="5">
+      <c r="V55" s="5">
         <f t="shared" si="5"/>
         <v>0.70472076520621207</v>
       </c>
-      <c r="W53" s="4"/>
-      <c r="X53" s="4"/>
-      <c r="Y53" s="4"/>
-      <c r="Z53" s="5"/>
-    </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A54" s="59"/>
-      <c r="B54" s="10">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C54" s="11">
+      <c r="W55" s="4"/>
+      <c r="X55" s="4"/>
+      <c r="Y55" s="4"/>
+      <c r="Z55" s="5"/>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A56" s="59"/>
+      <c r="B56" s="10">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C56" s="11">
         <v>180</v>
       </c>
-      <c r="D54" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="E54" s="23" t="s">
+      <c r="D56" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E56" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="F54" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="G54" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H54" s="11" t="s">
+      <c r="F56" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G56" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H56" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I54" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="J54" s="29" t="s">
+      <c r="I56" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J56" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="K54" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="L54" s="11"/>
-      <c r="M54" s="11"/>
-      <c r="N54" s="11"/>
-      <c r="O54" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="P54" s="43">
+      <c r="K56" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="P56" s="43">
         <v>324</v>
       </c>
-      <c r="Q54" s="12">
+      <c r="Q56" s="12">
         <f t="shared" si="3"/>
         <v>0.96667695154787614</v>
       </c>
-      <c r="R54" s="54">
+      <c r="R56" s="54">
         <v>0.97</v>
       </c>
-      <c r="S54" s="43">
+      <c r="S56" s="43">
         <v>6582</v>
       </c>
-      <c r="T54" s="43">
+      <c r="T56" s="43">
         <v>13</v>
       </c>
-      <c r="U54" s="12">
+      <c r="U56" s="12">
         <f t="shared" si="4"/>
         <v>0.99802491642360946</v>
       </c>
-      <c r="V54" s="14">
+      <c r="V56" s="14">
         <f t="shared" si="5"/>
         <v>0.67561452227707497</v>
       </c>
-      <c r="W54" s="12"/>
-      <c r="X54" s="12"/>
-      <c r="Y54" s="12"/>
-      <c r="Z54" s="14"/>
-    </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A55" s="57" t="s">
+      <c r="W56" s="12"/>
+      <c r="X56" s="12"/>
+      <c r="Y56" s="12"/>
+      <c r="Z56" s="14"/>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A57" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="B55" s="15">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C55" s="2">
+      <c r="B57" s="15">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C57" s="2">
         <v>60</v>
       </c>
-      <c r="D55" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E55" s="22" t="s">
+      <c r="D57" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="F55" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="G55" s="32" t="s">
+      <c r="F57" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G57" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="H55" s="32" t="s">
+      <c r="H57" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="I55" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="J55" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="K55" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="L55" s="32"/>
-      <c r="M55" s="32"/>
-      <c r="N55" s="32"/>
-      <c r="O55" s="40" t="s">
+      <c r="I57" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="J57" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="K57" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="L57" s="32"/>
+      <c r="M57" s="32"/>
+      <c r="N57" s="32"/>
+      <c r="O57" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="P55" s="46"/>
-      <c r="Q55" s="17">
+      <c r="P57" s="46"/>
+      <c r="Q57" s="17">
         <f t="shared" si="3"/>
         <v>0.99999999998971512</v>
       </c>
-      <c r="R55" s="52">
+      <c r="R57" s="52">
         <v>0.95</v>
       </c>
-      <c r="S55" s="46"/>
-      <c r="T55" s="50"/>
-      <c r="U55" s="30">
+      <c r="S57" s="46"/>
+      <c r="T57" s="50"/>
+      <c r="U57" s="30">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V55" s="18">
+      <c r="V57" s="18">
         <f t="shared" si="5"/>
         <v>1.0284891494394734E-11</v>
       </c>
-      <c r="W55" s="17"/>
-      <c r="X55" s="17"/>
-      <c r="Y55" s="17"/>
-      <c r="Z55" s="18"/>
-    </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A56" s="58"/>
-      <c r="B56" s="1">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C56" s="2">
+      <c r="W57" s="17"/>
+      <c r="X57" s="17"/>
+      <c r="Y57" s="17"/>
+      <c r="Z57" s="18"/>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A58" s="58"/>
+      <c r="B58" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C58" s="2">
         <v>100</v>
       </c>
-      <c r="D56" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="E56" s="19" t="s">
+      <c r="D58" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F56" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="G56" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="H56" s="28" t="s">
+      <c r="F58" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G58" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="H58" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="I56" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="J56" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="K56" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="L56" s="28"/>
-      <c r="M56" s="28"/>
-      <c r="N56" s="28"/>
-      <c r="O56" s="41" t="s">
+      <c r="I58" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="J58" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="K58" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="L58" s="28"/>
+      <c r="M58" s="28"/>
+      <c r="N58" s="28"/>
+      <c r="O58" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="P56" s="44"/>
-      <c r="Q56" s="4">
+      <c r="P58" s="44"/>
+      <c r="Q58" s="4">
         <f t="shared" si="3"/>
         <v>0.99999999998971512</v>
       </c>
-      <c r="R56" s="53">
+      <c r="R58" s="53">
         <v>0.95</v>
       </c>
-      <c r="S56" s="44"/>
-      <c r="T56" s="44"/>
-      <c r="U56" s="4">
+      <c r="S58" s="44"/>
+      <c r="T58" s="44"/>
+      <c r="U58" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V56" s="5">
+      <c r="V58" s="5">
         <f t="shared" si="5"/>
         <v>1.0284891494394734E-11</v>
       </c>
-      <c r="W56" s="4"/>
-      <c r="X56" s="4"/>
-      <c r="Y56" s="4"/>
-      <c r="Z56" s="5"/>
-    </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A57" s="58"/>
-      <c r="B57" s="1">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C57" s="2">
+      <c r="W58" s="4"/>
+      <c r="X58" s="4"/>
+      <c r="Y58" s="4"/>
+      <c r="Z58" s="5"/>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A59" s="58"/>
+      <c r="B59" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C59" s="2">
         <v>140</v>
       </c>
-      <c r="D57" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="E57" s="19" t="s">
+      <c r="D59" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E59" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F57" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="G57" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="H57" s="28" t="s">
+      <c r="F59" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G59" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="H59" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="I57" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="J57" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="K57" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="L57" s="28"/>
-      <c r="M57" s="28"/>
-      <c r="N57" s="28"/>
-      <c r="O57" s="41" t="s">
+      <c r="I59" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="J59" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="K59" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="L59" s="28"/>
+      <c r="M59" s="28"/>
+      <c r="N59" s="28"/>
+      <c r="O59" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="P57" s="44"/>
-      <c r="Q57" s="4">
+      <c r="P59" s="44"/>
+      <c r="Q59" s="4">
         <f t="shared" si="3"/>
         <v>0.99999999998971512</v>
       </c>
-      <c r="R57" s="53">
+      <c r="R59" s="53">
         <v>0.95</v>
       </c>
-      <c r="S57" s="44"/>
-      <c r="T57" s="44"/>
-      <c r="U57" s="4">
+      <c r="S59" s="44"/>
+      <c r="T59" s="44"/>
+      <c r="U59" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V57" s="5">
+      <c r="V59" s="5">
         <f t="shared" si="5"/>
         <v>1.0284891494394734E-11</v>
       </c>
-      <c r="W57" s="4"/>
-      <c r="X57" s="4"/>
-      <c r="Y57" s="4"/>
-      <c r="Z57" s="5"/>
-    </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A58" s="59"/>
-      <c r="B58" s="10">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C58" s="11">
+      <c r="W59" s="4"/>
+      <c r="X59" s="4"/>
+      <c r="Y59" s="4"/>
+      <c r="Z59" s="5"/>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A60" s="59"/>
+      <c r="B60" s="10">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C60" s="11">
         <v>180</v>
       </c>
-      <c r="D58" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="E58" s="23" t="s">
+      <c r="D60" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="F58" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="G58" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H58" s="11" t="s">
+      <c r="F60" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G60" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H60" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I58" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="J58" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="K58" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="L58" s="11"/>
-      <c r="M58" s="11"/>
-      <c r="N58" s="11"/>
-      <c r="O58" s="42" t="s">
+      <c r="I60" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J60" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="K60" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="L60" s="11"/>
+      <c r="M60" s="11"/>
+      <c r="N60" s="11"/>
+      <c r="O60" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="P58" s="43"/>
-      <c r="Q58" s="12">
+      <c r="P60" s="43"/>
+      <c r="Q60" s="12">
         <f t="shared" si="3"/>
         <v>0.99999999998971512</v>
       </c>
-      <c r="R58" s="54">
+      <c r="R60" s="54">
         <v>0.95</v>
       </c>
-      <c r="S58" s="43"/>
-      <c r="T58" s="45"/>
-      <c r="U58" s="20">
+      <c r="S60" s="43"/>
+      <c r="T60" s="45"/>
+      <c r="U60" s="20">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V58" s="13">
+      <c r="V60" s="13">
         <f t="shared" si="5"/>
         <v>1.0284891494394734E-11</v>
       </c>
-      <c r="W58" s="12"/>
-      <c r="X58" s="12"/>
-      <c r="Y58" s="12"/>
-      <c r="Z58" s="14"/>
-    </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A59" s="57" t="s">
+      <c r="W60" s="12"/>
+      <c r="X60" s="12"/>
+      <c r="Y60" s="12"/>
+      <c r="Z60" s="14"/>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A61" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="B59" s="15">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C59" s="2">
+      <c r="B61" s="15">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C61" s="2">
         <v>60</v>
       </c>
-      <c r="D59" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E59" s="22" t="s">
+      <c r="D61" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E61" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="F59" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="G59" s="32" t="s">
+      <c r="F61" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G61" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="H59" s="32" t="s">
+      <c r="H61" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="I59" s="32" t="s">
+      <c r="I61" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="J59" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="K59" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="L59" s="32"/>
-      <c r="M59" s="32"/>
-      <c r="N59" s="32"/>
-      <c r="O59" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="P59" s="46">
+      <c r="J61" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="K61" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="L61" s="32"/>
+      <c r="M61" s="32"/>
+      <c r="N61" s="32"/>
+      <c r="O61" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="P61" s="46">
         <v>342</v>
       </c>
-      <c r="Q59" s="17">
+      <c r="Q61" s="17">
         <f t="shared" si="3"/>
         <v>0.96482567107888517</v>
       </c>
-      <c r="R59" s="52">
+      <c r="R61" s="52">
         <v>0.99</v>
       </c>
-      <c r="S59" s="46">
+      <c r="S61" s="46">
         <v>3861</v>
       </c>
-      <c r="T59" s="50">
+      <c r="T61" s="50">
         <v>7</v>
       </c>
-      <c r="U59" s="30">
+      <c r="U61" s="30">
         <f t="shared" si="4"/>
         <v>0.99818699816114509</v>
       </c>
-      <c r="V59" s="18">
+      <c r="V61" s="18">
         <f t="shared" si="5"/>
         <v>0.39637971820425794</v>
       </c>
-      <c r="W59" s="17"/>
-      <c r="X59" s="17"/>
-      <c r="Y59" s="17"/>
-      <c r="Z59" s="18"/>
-    </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A60" s="58"/>
-      <c r="B60" s="1">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C60" s="2">
+      <c r="W61" s="17"/>
+      <c r="X61" s="17"/>
+      <c r="Y61" s="17"/>
+      <c r="Z61" s="18"/>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A62" s="58"/>
+      <c r="B62" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C62" s="2">
         <v>100</v>
       </c>
-      <c r="D60" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="E60" s="19" t="s">
+      <c r="D62" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F60" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="G60" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="H60" s="28" t="s">
+      <c r="F62" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G62" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="H62" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="I60" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="J60" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="K60" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="L60" s="28"/>
-      <c r="M60" s="28"/>
-      <c r="N60" s="28"/>
-      <c r="O60" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="P60" s="44">
+      <c r="I62" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="J62" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="K62" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="L62" s="28"/>
+      <c r="M62" s="28"/>
+      <c r="N62" s="28"/>
+      <c r="O62" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="P62" s="44">
         <v>201</v>
       </c>
-      <c r="Q60" s="4">
+      <c r="Q62" s="4">
         <f t="shared" si="3"/>
         <v>0.97932736808598164</v>
       </c>
-      <c r="R60" s="53">
+      <c r="R62" s="53">
         <v>0.99</v>
       </c>
-      <c r="S60" s="44">
+      <c r="S62" s="44">
         <v>7369</v>
       </c>
-      <c r="T60" s="44">
-        <v>4</v>
-      </c>
-      <c r="U60" s="4">
+      <c r="T62" s="44">
+        <v>4</v>
+      </c>
+      <c r="U62" s="4">
         <f t="shared" si="4"/>
         <v>0.99945718549328999</v>
       </c>
-      <c r="V60" s="5">
+      <c r="V62" s="5">
         <f t="shared" si="5"/>
         <v>0.75748225857245699</v>
       </c>
-      <c r="W60" s="4"/>
-      <c r="X60" s="4"/>
-      <c r="Y60" s="4"/>
-      <c r="Z60" s="5"/>
-    </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A61" s="58"/>
-      <c r="B61" s="1">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C61" s="2">
+      <c r="W62" s="4"/>
+      <c r="X62" s="4"/>
+      <c r="Y62" s="4"/>
+      <c r="Z62" s="5"/>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A63" s="58"/>
+      <c r="B63" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C63" s="2">
         <v>140</v>
       </c>
-      <c r="D61" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="E61" s="19" t="s">
+      <c r="D63" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E63" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F61" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="G61" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="H61" s="28" t="s">
+      <c r="F63" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G63" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="H63" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="I61" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="J61" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="K61" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="L61" s="28"/>
-      <c r="M61" s="28"/>
-      <c r="N61" s="28"/>
-      <c r="O61" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="P61" s="44">
+      <c r="I63" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="J63" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="K63" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="L63" s="28"/>
+      <c r="M63" s="28"/>
+      <c r="N63" s="28"/>
+      <c r="O63" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="P63" s="44">
         <v>184</v>
       </c>
-      <c r="Q61" s="4">
+      <c r="Q63" s="4">
         <f t="shared" si="3"/>
         <v>0.98107579964002878</v>
       </c>
-      <c r="R61" s="53">
+      <c r="R63" s="53">
         <v>0.99</v>
       </c>
-      <c r="S61" s="44">
+      <c r="S63" s="44">
         <v>8099</v>
       </c>
-      <c r="T61" s="44">
+      <c r="T63" s="44">
         <v>12</v>
       </c>
-      <c r="U61" s="4">
+      <c r="U63" s="4">
         <f t="shared" si="4"/>
         <v>0.99851833558465841</v>
       </c>
-      <c r="V61" s="5">
+      <c r="V63" s="5">
         <f t="shared" si="5"/>
         <v>0.83173917516198703</v>
       </c>
-      <c r="W61" s="4"/>
-      <c r="X61" s="4"/>
-      <c r="Y61" s="4"/>
-      <c r="Z61" s="5"/>
-    </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A62" s="59"/>
-      <c r="B62" s="10">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C62" s="11">
+      <c r="W63" s="4"/>
+      <c r="X63" s="4"/>
+      <c r="Y63" s="4"/>
+      <c r="Z63" s="5"/>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A64" s="59"/>
+      <c r="B64" s="10">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C64" s="11">
         <v>180</v>
       </c>
-      <c r="D62" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="E62" s="23" t="s">
+      <c r="D64" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E64" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="F62" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="G62" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H62" s="11" t="s">
+      <c r="F64" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H64" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="I62" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="J62" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="K62" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="L62" s="11"/>
-      <c r="M62" s="11"/>
-      <c r="N62" s="11"/>
-      <c r="O62" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="P62" s="43">
+      <c r="I64" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J64" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="K64" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="L64" s="11"/>
+      <c r="M64" s="11"/>
+      <c r="N64" s="11"/>
+      <c r="O64" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="P64" s="43">
         <v>182</v>
       </c>
-      <c r="Q62" s="12">
+      <c r="Q64" s="12">
         <f t="shared" si="3"/>
         <v>0.98128149746991666</v>
       </c>
-      <c r="R62" s="54">
+      <c r="R64" s="54">
         <v>0.99</v>
       </c>
-      <c r="S62" s="43">
+      <c r="S64" s="43">
         <v>8188</v>
       </c>
-      <c r="T62" s="47">
+      <c r="T64" s="47">
         <v>8</v>
       </c>
-      <c r="U62" s="20">
+      <c r="U64" s="20">
         <f t="shared" si="4"/>
         <v>0.99902296041769634</v>
       </c>
-      <c r="V62" s="13">
+      <c r="V64" s="13">
         <f t="shared" si="5"/>
         <v>0.84130412425177414</v>
       </c>
-      <c r="W62" s="12"/>
-      <c r="X62" s="12"/>
-      <c r="Y62" s="12"/>
-      <c r="Z62" s="14"/>
-    </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A63" s="57" t="s">
+      <c r="W64" s="12"/>
+      <c r="X64" s="12"/>
+      <c r="Y64" s="12"/>
+      <c r="Z64" s="14"/>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A65" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="B63" s="15">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C63" s="2">
+      <c r="B65" s="15">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C65" s="2">
         <v>80</v>
       </c>
-      <c r="D63" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E63" s="22" t="s">
+      <c r="D65" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E65" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="F63" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="G63" s="32" t="s">
+      <c r="F65" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G65" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="H63" s="32" t="s">
+      <c r="H65" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="I63" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="J63" s="32" t="s">
+      <c r="I65" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="J65" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="K63" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="L63" s="32"/>
-      <c r="M63" s="32"/>
-      <c r="N63" s="32"/>
-      <c r="O63" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="P63" s="46">
+      <c r="K65" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="L65" s="32"/>
+      <c r="M65" s="32"/>
+      <c r="N65" s="32"/>
+      <c r="O65" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="P65" s="46">
         <v>288</v>
       </c>
-      <c r="Q63" s="17">
+      <c r="Q65" s="17">
         <f t="shared" si="3"/>
         <v>0.9703795124858583</v>
       </c>
-      <c r="R63" s="52">
+      <c r="R65" s="52">
         <v>0.99</v>
       </c>
-      <c r="S63" s="46">
+      <c r="S65" s="46">
         <v>553</v>
       </c>
-      <c r="T63" s="50">
+      <c r="T65" s="50">
         <v>0</v>
       </c>
-      <c r="U63" s="30">
+      <c r="U65" s="30">
         <f t="shared" si="4"/>
         <v>0.99999999981916821</v>
       </c>
-      <c r="V63" s="18">
+      <c r="V65" s="18">
         <f t="shared" si="5"/>
         <v>5.687544997428777E-2</v>
       </c>
-      <c r="W63" s="17"/>
-      <c r="X63" s="17"/>
-      <c r="Y63" s="17"/>
-      <c r="Z63" s="18"/>
-    </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A64" s="58"/>
-      <c r="B64" s="1">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C64" s="2">
+      <c r="W65" s="17"/>
+      <c r="X65" s="17"/>
+      <c r="Y65" s="17"/>
+      <c r="Z65" s="18"/>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A66" s="58"/>
+      <c r="B66" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C66" s="2">
         <v>120</v>
       </c>
-      <c r="D64" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="E64" s="19" t="s">
+      <c r="D66" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F64" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="G64" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="H64" s="28" t="s">
+      <c r="F66" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G66" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="H66" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="I64" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="J64" s="28" t="s">
+      <c r="I66" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="J66" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="K64" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="L64" s="28"/>
-      <c r="M64" s="28"/>
-      <c r="N64" s="28"/>
-      <c r="O64" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="P64" s="44">
+      <c r="K66" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="L66" s="28"/>
+      <c r="M66" s="28"/>
+      <c r="N66" s="28"/>
+      <c r="O66" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="P66" s="44">
         <v>210</v>
       </c>
-      <c r="Q64" s="4">
+      <c r="Q66" s="4">
         <f t="shared" si="3"/>
         <v>0.97840172785148616</v>
       </c>
-      <c r="R64" s="53">
+      <c r="R66" s="53">
         <v>0.99</v>
       </c>
-      <c r="S64" s="44">
+      <c r="S66" s="44">
         <v>4349</v>
       </c>
-      <c r="T64" s="44">
+      <c r="T66" s="44">
         <v>1</v>
       </c>
-      <c r="U64" s="4">
+      <c r="U66" s="4">
         <f t="shared" si="4"/>
         <v>0.99977006206024899</v>
       </c>
-      <c r="V64" s="5">
+      <c r="V66" s="5">
         <f t="shared" si="5"/>
         <v>0.44718708218656794</v>
       </c>
-      <c r="W64" s="4"/>
-      <c r="X64" s="4"/>
-      <c r="Y64" s="4"/>
-      <c r="Z64" s="5"/>
-    </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A65" s="58"/>
-      <c r="B65" s="1">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C65" s="2">
+      <c r="W66" s="4"/>
+      <c r="X66" s="4"/>
+      <c r="Y66" s="4"/>
+      <c r="Z66" s="5"/>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A67" s="58"/>
+      <c r="B67" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C67" s="2">
         <v>160</v>
       </c>
-      <c r="D65" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="E65" s="19" t="s">
+      <c r="D67" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E67" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F65" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="G65" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="H65" s="28" t="s">
+      <c r="F67" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G67" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="H67" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="I65" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="J65" s="28" t="s">
+      <c r="I67" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="J67" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="K65" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="L65" s="28"/>
-      <c r="M65" s="28"/>
-      <c r="N65" s="28"/>
-      <c r="O65" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="P65" s="44">
+      <c r="K67" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="L67" s="28"/>
+      <c r="M67" s="28"/>
+      <c r="N67" s="28"/>
+      <c r="O67" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="P67" s="44">
         <v>202</v>
       </c>
-      <c r="Q65" s="4">
+      <c r="Q67" s="4">
         <f t="shared" si="3"/>
         <v>0.9792245191710377</v>
       </c>
-      <c r="R65" s="53">
+      <c r="R67" s="53">
         <v>0.99</v>
       </c>
-      <c r="S65" s="44">
+      <c r="S67" s="44">
         <v>5944</v>
       </c>
-      <c r="T65" s="44">
+      <c r="T67" s="44">
         <v>1</v>
       </c>
-      <c r="U65" s="4">
+      <c r="U67" s="4">
         <f t="shared" si="4"/>
         <v>0.99983176310565558</v>
       </c>
-      <c r="V65" s="5">
+      <c r="V67" s="5">
         <f t="shared" si="5"/>
         <v>0.61123110152216398</v>
       </c>
-      <c r="W65" s="4"/>
-      <c r="X65" s="4"/>
-      <c r="Y65" s="4"/>
-      <c r="Z65" s="5"/>
-    </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A66" s="59"/>
-      <c r="B66" s="10">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C66" s="11">
+      <c r="W67" s="4"/>
+      <c r="X67" s="4"/>
+      <c r="Y67" s="4"/>
+      <c r="Z67" s="5"/>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A68" s="59"/>
+      <c r="B68" s="10">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C68" s="11">
         <v>200</v>
       </c>
-      <c r="D66" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="E66" s="23" t="s">
+      <c r="D68" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E68" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="F66" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="G66" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H66" s="11" t="s">
+      <c r="F68" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G68" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H68" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="I66" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="J66" s="11" t="s">
+      <c r="I68" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J68" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="K66" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="L66" s="11"/>
-      <c r="M66" s="11"/>
-      <c r="N66" s="11"/>
-      <c r="O66" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="P66" s="43">
+      <c r="K68" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="L68" s="11"/>
+      <c r="M68" s="11"/>
+      <c r="N68" s="11"/>
+      <c r="O68" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="P68" s="43">
         <v>205</v>
       </c>
-      <c r="Q66" s="12">
+      <c r="Q68" s="12">
         <f t="shared" si="3"/>
         <v>0.97891597242620587</v>
       </c>
-      <c r="R66" s="54">
+      <c r="R68" s="54">
         <v>0.99</v>
       </c>
-      <c r="S66" s="43">
+      <c r="S68" s="43">
         <v>6249</v>
       </c>
-      <c r="T66" s="47">
+      <c r="T68" s="47">
         <v>1</v>
       </c>
-      <c r="U66" s="20">
+      <c r="U68" s="20">
         <f t="shared" si="4"/>
         <v>0.99983997437990335</v>
       </c>
-      <c r="V66" s="13">
+      <c r="V68" s="13">
         <f t="shared" si="5"/>
         <v>0.64260002058006782</v>
       </c>
-      <c r="W66" s="12"/>
-      <c r="X66" s="12"/>
-      <c r="Y66" s="12"/>
-      <c r="Z66" s="14"/>
-    </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A67" s="57" t="s">
+      <c r="W68" s="12"/>
+      <c r="X68" s="12"/>
+      <c r="Y68" s="12"/>
+      <c r="Z68" s="14"/>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A69" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="B67" s="15">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C67" s="2">
+      <c r="B69" s="15">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C69" s="2">
         <v>80</v>
       </c>
-      <c r="D67" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E67" s="22" t="s">
+      <c r="D69" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E69" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="F67" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="G67" s="32" t="s">
+      <c r="F69" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G69" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="H67" s="32" t="s">
+      <c r="H69" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="I67" s="32" t="s">
+      <c r="I69" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="J67" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="K67" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="L67" s="32"/>
-      <c r="M67" s="32"/>
-      <c r="N67" s="32"/>
-      <c r="O67" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="P67" s="46">
+      <c r="J69" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="K69" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="L69" s="32"/>
+      <c r="M69" s="32"/>
+      <c r="N69" s="32"/>
+      <c r="O69" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="P69" s="46">
         <v>507</v>
       </c>
-      <c r="Q67" s="17">
-        <f t="shared" ref="Q67:Q98" si="6">1-(P67+0.0000001)/9723</f>
+      <c r="Q69" s="17">
+        <f t="shared" ref="Q69:Q86" si="12">1-(P69+0.0000001)/9723</f>
         <v>0.94785560011313386</v>
       </c>
-      <c r="R67" s="52">
+      <c r="R69" s="52">
         <v>0.85</v>
       </c>
-      <c r="S67" s="46">
+      <c r="S69" s="46">
         <v>4753</v>
       </c>
-      <c r="T67" s="50">
+      <c r="T69" s="50">
         <v>11</v>
       </c>
-      <c r="U67" s="30">
-        <f t="shared" ref="U67:U98" si="7">1-(T67+0.0000001)/(S67+0.0000001)</f>
+      <c r="U69" s="30">
+        <f t="shared" ref="U69:U86" si="13">1-(T69+0.0000001)/(S69+0.0000001)</f>
         <v>0.99768567218603654</v>
       </c>
-      <c r="V67" s="18">
-        <f t="shared" ref="V67:V84" si="8">(S67-T67+0.0000001)/9723</f>
+      <c r="V69" s="18">
+        <f t="shared" ref="V69:V86" si="14">(S69-T69+0.0000001)/9723</f>
         <v>0.48770955467448318</v>
       </c>
-      <c r="W67" s="17"/>
-      <c r="X67" s="17"/>
-      <c r="Y67" s="17"/>
-      <c r="Z67" s="18"/>
-    </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A68" s="58"/>
-      <c r="B68" s="1">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C68" s="2">
+      <c r="W69" s="17"/>
+      <c r="X69" s="17"/>
+      <c r="Y69" s="17"/>
+      <c r="Z69" s="18"/>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A70" s="58"/>
+      <c r="B70" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C70" s="2">
         <v>120</v>
       </c>
-      <c r="D68" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="E68" s="19" t="s">
+      <c r="D70" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E70" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F68" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="G68" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="H68" s="28" t="s">
+      <c r="F70" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G70" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="H70" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="I68" s="28" t="s">
+      <c r="I70" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="J68" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="K68" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="L68" s="28"/>
-      <c r="M68" s="28"/>
-      <c r="N68" s="28"/>
-      <c r="O68" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="P68" s="44">
+      <c r="J70" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="K70" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="L70" s="28"/>
+      <c r="M70" s="28"/>
+      <c r="N70" s="28"/>
+      <c r="O70" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="P70" s="44">
         <v>225</v>
       </c>
-      <c r="Q68" s="4">
-        <f t="shared" si="6"/>
+      <c r="Q70" s="4">
+        <f t="shared" si="12"/>
         <v>0.97685899412732691</v>
       </c>
-      <c r="R68" s="53">
+      <c r="R70" s="53">
         <v>0.85</v>
       </c>
-      <c r="S68" s="44">
+      <c r="S70" s="44">
         <v>8376</v>
       </c>
-      <c r="T68" s="44">
+      <c r="T70" s="44">
         <v>11</v>
       </c>
-      <c r="U68" s="4">
-        <f t="shared" si="7"/>
+      <c r="U70" s="4">
+        <f t="shared" si="13"/>
         <v>0.99868672396133373</v>
       </c>
-      <c r="V68" s="5">
-        <f t="shared" si="8"/>
+      <c r="V70" s="5">
+        <f t="shared" si="14"/>
         <v>0.86033117351640453</v>
       </c>
-      <c r="W68" s="4"/>
-      <c r="X68" s="4"/>
-      <c r="Y68" s="4"/>
-      <c r="Z68" s="5"/>
-    </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A69" s="58"/>
-      <c r="B69" s="1">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C69" s="2">
+      <c r="W70" s="4"/>
+      <c r="X70" s="4"/>
+      <c r="Y70" s="4"/>
+      <c r="Z70" s="5"/>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A71" s="58"/>
+      <c r="B71" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C71" s="2">
         <v>160</v>
       </c>
-      <c r="D69" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="E69" s="19" t="s">
+      <c r="D71" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E71" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F69" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="G69" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="H69" s="28" t="s">
+      <c r="F71" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G71" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="H71" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="I69" s="28" t="s">
+      <c r="I71" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="J69" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="K69" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="L69" s="28"/>
-      <c r="M69" s="28"/>
-      <c r="N69" s="28"/>
-      <c r="O69" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="P69" s="44">
+      <c r="J71" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="K71" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="L71" s="28"/>
+      <c r="M71" s="28"/>
+      <c r="N71" s="28"/>
+      <c r="O71" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="P71" s="44">
         <v>190</v>
       </c>
-      <c r="Q69" s="4">
-        <f t="shared" si="6"/>
+      <c r="Q71" s="4">
+        <f t="shared" si="12"/>
         <v>0.98045870615036512</v>
       </c>
-      <c r="R69" s="53">
+      <c r="R71" s="53">
         <v>0.85</v>
       </c>
-      <c r="S69" s="44">
+      <c r="S71" s="44">
         <v>8425</v>
       </c>
-      <c r="T69" s="44">
+      <c r="T71" s="44">
         <v>12</v>
       </c>
-      <c r="U69" s="4">
-        <f t="shared" si="7"/>
+      <c r="U71" s="4">
+        <f t="shared" si="13"/>
         <v>0.9985756676439338</v>
       </c>
-      <c r="V69" s="5">
-        <f t="shared" si="8"/>
+      <c r="V71" s="5">
+        <f t="shared" si="14"/>
         <v>0.865267921433714</v>
       </c>
-      <c r="W69" s="4"/>
-      <c r="X69" s="4"/>
-      <c r="Y69" s="4"/>
-      <c r="Z69" s="5"/>
-    </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A70" s="59"/>
-      <c r="B70" s="10">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C70" s="11">
+      <c r="W71" s="4"/>
+      <c r="X71" s="4"/>
+      <c r="Y71" s="4"/>
+      <c r="Z71" s="5"/>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A72" s="59"/>
+      <c r="B72" s="10">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C72" s="11">
         <v>200</v>
       </c>
-      <c r="D70" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="E70" s="23" t="s">
+      <c r="D72" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E72" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="F70" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="G70" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H70" s="11" t="s">
+      <c r="F72" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G72" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H72" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="I70" s="11" t="s">
+      <c r="I72" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="J70" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="K70" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="L70" s="11"/>
-      <c r="M70" s="11"/>
-      <c r="N70" s="11"/>
-      <c r="O70" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="P70" s="43">
+      <c r="J72" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="K72" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="L72" s="11"/>
+      <c r="M72" s="11"/>
+      <c r="N72" s="11"/>
+      <c r="O72" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="P72" s="43">
         <v>192</v>
       </c>
-      <c r="Q70" s="12">
-        <f t="shared" si="6"/>
+      <c r="Q72" s="12">
+        <f t="shared" si="12"/>
         <v>0.98025300832047724</v>
       </c>
-      <c r="R70" s="54">
+      <c r="R72" s="54">
         <v>0.85</v>
       </c>
-      <c r="S70" s="43">
+      <c r="S72" s="43">
         <v>8286</v>
       </c>
-      <c r="T70" s="47">
+      <c r="T72" s="47">
         <v>5</v>
       </c>
-      <c r="U70" s="20">
-        <f t="shared" si="7"/>
+      <c r="U72" s="20">
+        <f t="shared" si="13"/>
         <v>0.99939657251992042</v>
       </c>
-      <c r="V70" s="13">
-        <f t="shared" si="8"/>
+      <c r="V72" s="13">
+        <f t="shared" si="14"/>
         <v>0.85169186466111291</v>
       </c>
-      <c r="W70" s="12"/>
-      <c r="X70" s="12"/>
-      <c r="Y70" s="12"/>
-      <c r="Z70" s="14"/>
-    </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A71" s="57" t="s">
+      <c r="W72" s="12"/>
+      <c r="X72" s="12"/>
+      <c r="Y72" s="12"/>
+      <c r="Z72" s="14"/>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A73" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="B71" s="15">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C71" s="2">
+      <c r="B73" s="15">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C73" s="2">
         <v>80</v>
       </c>
-      <c r="D71" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E71" s="22" t="s">
+      <c r="D73" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E73" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="F71" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="G71" s="32" t="s">
+      <c r="F73" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G73" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="H71" s="32" t="s">
+      <c r="H73" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="I71" s="32" t="s">
+      <c r="I73" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="J71" s="32" t="s">
+      <c r="J73" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="K71" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="L71" s="32"/>
-      <c r="M71" s="32"/>
-      <c r="N71" s="32"/>
-      <c r="O71" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="P71" s="46">
+      <c r="K73" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="L73" s="32"/>
+      <c r="M73" s="32"/>
+      <c r="N73" s="32"/>
+      <c r="O73" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="P73" s="46">
         <v>378</v>
       </c>
-      <c r="Q71" s="17">
-        <f t="shared" si="6"/>
+      <c r="Q73" s="17">
+        <f t="shared" si="12"/>
         <v>0.96112311014090301</v>
       </c>
-      <c r="R71" s="52">
+      <c r="R73" s="52">
         <v>0.87</v>
       </c>
-      <c r="S71" s="46">
+      <c r="S73" s="46">
         <v>4458</v>
       </c>
-      <c r="T71" s="50">
-        <v>6</v>
-      </c>
-      <c r="U71" s="30">
-        <f t="shared" si="7"/>
+      <c r="T73" s="50">
+        <v>6</v>
+      </c>
+      <c r="U73" s="30">
+        <f t="shared" si="13"/>
         <v>0.99865410495741014</v>
       </c>
-      <c r="V71" s="18">
-        <f t="shared" si="8"/>
+      <c r="V73" s="18">
+        <f t="shared" si="14"/>
         <v>0.45788336934073842</v>
       </c>
-      <c r="W71" s="17"/>
-      <c r="X71" s="17"/>
-      <c r="Y71" s="17"/>
-      <c r="Z71" s="18"/>
-    </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A72" s="58"/>
-      <c r="B72" s="1">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C72" s="2">
+      <c r="W73" s="17"/>
+      <c r="X73" s="17"/>
+      <c r="Y73" s="17"/>
+      <c r="Z73" s="18"/>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A74" s="58"/>
+      <c r="B74" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C74" s="2">
         <v>120</v>
       </c>
-      <c r="D72" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="E72" s="19" t="s">
+      <c r="D74" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E74" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F72" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="G72" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="H72" s="28" t="s">
+      <c r="F74" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G74" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="H74" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="I72" s="28" t="s">
+      <c r="I74" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="J72" s="28" t="s">
+      <c r="J74" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="K72" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="L72" s="28"/>
-      <c r="M72" s="28"/>
-      <c r="N72" s="28"/>
-      <c r="O72" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="P72" s="44">
+      <c r="K74" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="L74" s="28"/>
+      <c r="M74" s="28"/>
+      <c r="N74" s="28"/>
+      <c r="O74" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="P74" s="44">
         <v>227</v>
       </c>
-      <c r="Q72" s="4">
-        <f t="shared" si="6"/>
+      <c r="Q74" s="4">
+        <f t="shared" si="12"/>
         <v>0.97665329629743902</v>
       </c>
-      <c r="R72" s="53">
+      <c r="R74" s="53">
         <v>0.87</v>
       </c>
-      <c r="S72" s="44">
+      <c r="S74" s="44">
         <v>8134</v>
       </c>
-      <c r="T72" s="44">
-        <v>6</v>
-      </c>
-      <c r="U72" s="4">
-        <f t="shared" si="7"/>
+      <c r="T74" s="44">
+        <v>6</v>
+      </c>
+      <c r="U74" s="4">
+        <f t="shared" si="13"/>
         <v>0.99926235553234244</v>
       </c>
-      <c r="V72" s="5">
-        <f t="shared" si="8"/>
+      <c r="V74" s="5">
+        <f t="shared" si="14"/>
         <v>0.8359559806746889</v>
       </c>
-      <c r="W72" s="4"/>
-      <c r="X72" s="4"/>
-      <c r="Y72" s="4"/>
-      <c r="Z72" s="5"/>
-    </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A73" s="58"/>
-      <c r="B73" s="1">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C73" s="2">
+      <c r="W74" s="4"/>
+      <c r="X74" s="4"/>
+      <c r="Y74" s="4"/>
+      <c r="Z74" s="5"/>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A75" s="58"/>
+      <c r="B75" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C75" s="2">
         <v>160</v>
       </c>
-      <c r="D73" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="E73" s="19" t="s">
+      <c r="D75" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E75" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F73" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="G73" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="H73" s="28" t="s">
+      <c r="F75" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G75" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="H75" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="I73" s="28" t="s">
+      <c r="I75" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="J73" s="28" t="s">
+      <c r="J75" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="K73" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="L73" s="28"/>
-      <c r="M73" s="28"/>
-      <c r="N73" s="28"/>
-      <c r="O73" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="P73" s="44">
+      <c r="K75" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="L75" s="28"/>
+      <c r="M75" s="28"/>
+      <c r="N75" s="28"/>
+      <c r="O75" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="P75" s="44">
         <v>228</v>
       </c>
-      <c r="Q73" s="4">
-        <f t="shared" si="6"/>
+      <c r="Q75" s="4">
+        <f t="shared" si="12"/>
         <v>0.97655044738249508</v>
       </c>
-      <c r="R73" s="53">
+      <c r="R75" s="53">
         <v>0.87</v>
       </c>
-      <c r="S73" s="44">
+      <c r="S75" s="44">
         <v>8231</v>
       </c>
-      <c r="T73" s="44">
+      <c r="T75" s="44">
         <v>8</v>
       </c>
-      <c r="U73" s="4">
-        <f t="shared" si="7"/>
+      <c r="U75" s="4">
+        <f t="shared" si="13"/>
         <v>0.99902806462156446</v>
       </c>
-      <c r="V73" s="5">
-        <f t="shared" si="8"/>
+      <c r="V75" s="5">
+        <f t="shared" si="14"/>
         <v>0.84572662759436401</v>
       </c>
-      <c r="W73" s="4"/>
-      <c r="X73" s="4"/>
-      <c r="Y73" s="4"/>
-      <c r="Z73" s="5"/>
-    </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A74" s="59"/>
-      <c r="B74" s="10">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C74" s="11">
+      <c r="W75" s="4"/>
+      <c r="X75" s="4"/>
+      <c r="Y75" s="4"/>
+      <c r="Z75" s="5"/>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A76" s="59"/>
+      <c r="B76" s="10">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C76" s="11">
         <v>200</v>
       </c>
-      <c r="D74" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="E74" s="23" t="s">
+      <c r="D76" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E76" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="F74" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="G74" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H74" s="11" t="s">
+      <c r="F76" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G76" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H76" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="I74" s="11" t="s">
+      <c r="I76" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="J74" s="11" t="s">
+      <c r="J76" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="K74" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="L74" s="11"/>
-      <c r="M74" s="11"/>
-      <c r="N74" s="11"/>
-      <c r="O74" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="P74" s="43">
+      <c r="K76" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="L76" s="11"/>
+      <c r="M76" s="11"/>
+      <c r="N76" s="11"/>
+      <c r="O76" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="P76" s="43">
         <v>219</v>
       </c>
-      <c r="Q74" s="12">
-        <f t="shared" si="6"/>
+      <c r="Q76" s="12">
+        <f t="shared" si="12"/>
         <v>0.97747608761699067</v>
       </c>
-      <c r="R74" s="54">
+      <c r="R76" s="54">
         <v>0.87</v>
       </c>
-      <c r="S74" s="43">
+      <c r="S76" s="43">
         <v>7843</v>
       </c>
-      <c r="T74" s="47">
+      <c r="T76" s="47">
         <v>7</v>
       </c>
-      <c r="U74" s="20">
-        <f t="shared" si="7"/>
+      <c r="U76" s="20">
+        <f t="shared" si="13"/>
         <v>0.99910748436823782</v>
       </c>
-      <c r="V74" s="13">
-        <f t="shared" si="8"/>
+      <c r="V76" s="13">
+        <f t="shared" si="14"/>
         <v>0.8059240975110562</v>
       </c>
-      <c r="W74" s="12"/>
-      <c r="X74" s="12"/>
-      <c r="Y74" s="12"/>
-      <c r="Z74" s="14"/>
-    </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A75" s="57" t="s">
+      <c r="W76" s="12"/>
+      <c r="X76" s="12"/>
+      <c r="Y76" s="12"/>
+      <c r="Z76" s="14"/>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A77" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="B75" s="15">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C75" s="2">
+      <c r="B77" s="15">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C77" s="2">
         <v>80</v>
       </c>
-      <c r="D75" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E75" s="22" t="s">
+      <c r="D77" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E77" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="F75" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="G75" s="32" t="s">
+      <c r="F77" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G77" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="H75" s="32" t="s">
+      <c r="H77" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="I75" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="J75" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="K75" s="32" t="s">
+      <c r="I77" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="J77" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="K77" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="L77" s="32"/>
+      <c r="M77" s="32"/>
+      <c r="N77" s="32"/>
+      <c r="O77" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="P77" s="46">
+        <v>322</v>
+      </c>
+      <c r="Q77" s="17">
+        <f t="shared" si="12"/>
+        <v>0.96688264937776403</v>
+      </c>
+      <c r="R77" s="52">
+        <v>0.98</v>
+      </c>
+      <c r="S77" s="46">
+        <v>4404</v>
+      </c>
+      <c r="T77" s="50">
+        <v>0</v>
+      </c>
+      <c r="U77" s="30">
+        <f t="shared" si="13"/>
+        <v>0.99999999997729339</v>
+      </c>
+      <c r="V77" s="18">
+        <f t="shared" si="14"/>
+        <v>0.45294662142342895</v>
+      </c>
+      <c r="W77" s="17"/>
+      <c r="X77" s="17"/>
+      <c r="Y77" s="17"/>
+      <c r="Z77" s="18"/>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A78" s="58"/>
+      <c r="B78" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C78" s="2">
+        <v>120</v>
+      </c>
+      <c r="D78" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E78" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F78" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G78" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="H78" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="I78" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="J78" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="K78" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="L75" s="32"/>
-      <c r="M75" s="32"/>
-      <c r="N75" s="32"/>
-      <c r="O75" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="P75" s="46">
-        <v>322</v>
-      </c>
-      <c r="Q75" s="17">
-        <f t="shared" si="6"/>
-        <v>0.96688264937776403</v>
-      </c>
-      <c r="R75" s="52">
+      <c r="L78" s="28"/>
+      <c r="M78" s="28"/>
+      <c r="N78" s="28"/>
+      <c r="O78" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="P78" s="44">
+        <v>205</v>
+      </c>
+      <c r="Q78" s="4">
+        <f t="shared" si="12"/>
+        <v>0.97891597242620587</v>
+      </c>
+      <c r="R78" s="53">
         <v>0.98</v>
       </c>
-      <c r="S75" s="46">
-        <v>4404</v>
-      </c>
-      <c r="T75" s="50">
+      <c r="S78" s="44">
+        <v>7947</v>
+      </c>
+      <c r="T78" s="44">
+        <v>5</v>
+      </c>
+      <c r="U78" s="4">
+        <f t="shared" si="13"/>
+        <v>0.99937083174783725</v>
+      </c>
+      <c r="V78" s="5">
+        <f t="shared" si="14"/>
+        <v>0.81682608249511468</v>
+      </c>
+      <c r="W78" s="4"/>
+      <c r="X78" s="4"/>
+      <c r="Y78" s="4"/>
+      <c r="Z78" s="5"/>
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A79" s="58"/>
+      <c r="B79" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C79" s="2">
+        <v>160</v>
+      </c>
+      <c r="D79" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E79" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F79" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G79" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="H79" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="I79" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="J79" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="K79" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="L79" s="28"/>
+      <c r="M79" s="28"/>
+      <c r="N79" s="28"/>
+      <c r="O79" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="P79" s="44">
+        <v>171</v>
+      </c>
+      <c r="Q79" s="7">
+        <f t="shared" si="12"/>
+        <v>0.98241283553430014</v>
+      </c>
+      <c r="R79" s="53">
+        <v>0.98</v>
+      </c>
+      <c r="S79" s="44">
+        <v>8341</v>
+      </c>
+      <c r="T79" s="44">
+        <v>7</v>
+      </c>
+      <c r="U79" s="4">
+        <f t="shared" si="13"/>
+        <v>0.9991607720776986</v>
+      </c>
+      <c r="V79" s="5">
+        <f t="shared" si="14"/>
+        <v>0.85714285715314209</v>
+      </c>
+      <c r="W79" s="4"/>
+      <c r="X79" s="4"/>
+      <c r="Y79" s="4"/>
+      <c r="Z79" s="5"/>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A80" s="59"/>
+      <c r="B80" s="10">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C80" s="11">
+        <v>200</v>
+      </c>
+      <c r="D80" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E80" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F80" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G80" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H80" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="I80" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="J80" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="K80" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L80" s="11"/>
+      <c r="M80" s="11"/>
+      <c r="N80" s="11"/>
+      <c r="O80" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="P80" s="43">
+        <v>173</v>
+      </c>
+      <c r="Q80" s="12">
+        <f t="shared" si="12"/>
+        <v>0.98220713770441226</v>
+      </c>
+      <c r="R80" s="54">
+        <v>0.98</v>
+      </c>
+      <c r="S80" s="43">
+        <v>8474</v>
+      </c>
+      <c r="T80" s="47">
+        <v>6</v>
+      </c>
+      <c r="U80" s="20">
+        <f t="shared" si="13"/>
+        <v>0.99929195184093356</v>
+      </c>
+      <c r="V80" s="13">
+        <f t="shared" si="14"/>
+        <v>0.87092461175563107</v>
+      </c>
+      <c r="W80" s="12"/>
+      <c r="X80" s="12"/>
+      <c r="Y80" s="12"/>
+      <c r="Z80" s="14"/>
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A81" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="B81" s="15">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C81" s="2">
+        <v>80</v>
+      </c>
+      <c r="D81" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F81" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G81" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="U75" s="30">
-        <f t="shared" si="7"/>
-        <v>0.99999999997729339</v>
-      </c>
-      <c r="V75" s="18">
-        <f t="shared" si="8"/>
-        <v>0.45294662142342895</v>
-      </c>
-      <c r="W75" s="17"/>
-      <c r="X75" s="17"/>
-      <c r="Y75" s="17"/>
-      <c r="Z75" s="18"/>
-    </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A76" s="58"/>
-      <c r="B76" s="1">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C76" s="2">
-        <v>120</v>
-      </c>
-      <c r="D76" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="E76" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F76" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="G76" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="H76" s="28" t="s">
+      <c r="H81" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="I76" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="J76" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="K76" s="28" t="s">
+      <c r="I81" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="L76" s="28"/>
-      <c r="M76" s="28"/>
-      <c r="N76" s="28"/>
-      <c r="O76" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="P76" s="44">
-        <v>205</v>
-      </c>
-      <c r="Q76" s="4">
-        <f t="shared" si="6"/>
-        <v>0.97891597242620587</v>
-      </c>
-      <c r="R76" s="53">
-        <v>0.98</v>
-      </c>
-      <c r="S76" s="44">
-        <v>7947</v>
-      </c>
-      <c r="T76" s="44">
-        <v>5</v>
-      </c>
-      <c r="U76" s="4">
-        <f t="shared" si="7"/>
-        <v>0.99937083174783725</v>
-      </c>
-      <c r="V76" s="5">
-        <f t="shared" si="8"/>
-        <v>0.81682608249511468</v>
-      </c>
-      <c r="W76" s="4"/>
-      <c r="X76" s="4"/>
-      <c r="Y76" s="4"/>
-      <c r="Z76" s="5"/>
-    </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A77" s="58"/>
-      <c r="B77" s="1">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C77" s="2">
-        <v>160</v>
-      </c>
-      <c r="D77" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="E77" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F77" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="G77" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="H77" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="I77" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="J77" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="K77" s="28" t="s">
+      <c r="J81" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="K81" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="L77" s="28"/>
-      <c r="M77" s="28"/>
-      <c r="N77" s="28"/>
-      <c r="O77" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="P77" s="44">
-        <v>171</v>
-      </c>
-      <c r="Q77" s="7">
-        <f t="shared" si="6"/>
-        <v>0.98241283553430014</v>
-      </c>
-      <c r="R77" s="53">
-        <v>0.98</v>
-      </c>
-      <c r="S77" s="44">
-        <v>8341</v>
-      </c>
-      <c r="T77" s="44">
-        <v>7</v>
-      </c>
-      <c r="U77" s="4">
-        <f t="shared" si="7"/>
-        <v>0.9991607720776986</v>
-      </c>
-      <c r="V77" s="5">
-        <f t="shared" si="8"/>
-        <v>0.85714285715314209</v>
-      </c>
-      <c r="W77" s="4"/>
-      <c r="X77" s="4"/>
-      <c r="Y77" s="4"/>
-      <c r="Z77" s="5"/>
-    </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A78" s="59"/>
-      <c r="B78" s="10">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C78" s="11">
-        <v>200</v>
-      </c>
-      <c r="D78" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="E78" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="F78" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="G78" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H78" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="I78" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="J78" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="K78" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="L78" s="11"/>
-      <c r="M78" s="11"/>
-      <c r="N78" s="11"/>
-      <c r="O78" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="P78" s="43">
-        <v>173</v>
-      </c>
-      <c r="Q78" s="12">
-        <f t="shared" si="6"/>
-        <v>0.98220713770441226</v>
-      </c>
-      <c r="R78" s="54">
-        <v>0.98</v>
-      </c>
-      <c r="S78" s="43">
-        <v>8474</v>
-      </c>
-      <c r="T78" s="47">
-        <v>6</v>
-      </c>
-      <c r="U78" s="20">
-        <f t="shared" si="7"/>
-        <v>0.99929195184093356</v>
-      </c>
-      <c r="V78" s="13">
-        <f t="shared" si="8"/>
-        <v>0.87092461175563107</v>
-      </c>
-      <c r="W78" s="12"/>
-      <c r="X78" s="12"/>
-      <c r="Y78" s="12"/>
-      <c r="Z78" s="14"/>
-    </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A79" s="57" t="s">
-        <v>61</v>
-      </c>
-      <c r="B79" s="15">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C79" s="2">
-        <v>80</v>
-      </c>
-      <c r="D79" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E79" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F79" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="G79" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="H79" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="I79" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="J79" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="K79" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="L79" s="32"/>
-      <c r="M79" s="32"/>
-      <c r="N79" s="32"/>
-      <c r="O79" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="P79" s="46">
+      <c r="L81" s="32"/>
+      <c r="M81" s="32"/>
+      <c r="N81" s="32"/>
+      <c r="O81" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="P81" s="46">
         <v>383</v>
       </c>
-      <c r="Q79" s="17">
-        <f t="shared" si="6"/>
+      <c r="Q81" s="17">
+        <f t="shared" si="12"/>
         <v>0.9606088655661833</v>
       </c>
-      <c r="R79" s="52">
+      <c r="R81" s="52">
         <v>0.83</v>
       </c>
-      <c r="S79" s="46">
+      <c r="S81" s="46">
         <v>4711</v>
       </c>
-      <c r="T79" s="50">
+      <c r="T81" s="50">
         <v>21</v>
       </c>
-      <c r="U79" s="30">
-        <f t="shared" si="7"/>
+      <c r="U81" s="30">
+        <f t="shared" si="13"/>
         <v>0.99554234767574734</v>
       </c>
-      <c r="V79" s="18">
-        <f t="shared" si="8"/>
+      <c r="V81" s="18">
+        <f t="shared" si="14"/>
         <v>0.48236141109739789</v>
       </c>
-      <c r="W79" s="17"/>
-      <c r="X79" s="17"/>
-      <c r="Y79" s="17"/>
-      <c r="Z79" s="18"/>
-    </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A80" s="58"/>
-      <c r="B80" s="1">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C80" s="2">
-        <v>120</v>
-      </c>
-      <c r="D80" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="E80" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F80" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="G80" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="H80" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="I80" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="J80" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="K80" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="L80" s="28"/>
-      <c r="M80" s="28"/>
-      <c r="N80" s="28"/>
-      <c r="O80" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="P80" s="44">
-        <v>333</v>
-      </c>
-      <c r="Q80" s="4">
-        <f t="shared" si="6"/>
-        <v>0.96575131131338066</v>
-      </c>
-      <c r="R80" s="53">
-        <v>0.83</v>
-      </c>
-      <c r="S80" s="44">
-        <v>6347</v>
-      </c>
-      <c r="T80" s="44">
-        <v>30</v>
-      </c>
-      <c r="U80" s="4">
-        <f t="shared" si="7"/>
-        <v>0.99527335747604739</v>
-      </c>
-      <c r="V80" s="5">
-        <f t="shared" si="8"/>
-        <v>0.6496965957112002</v>
-      </c>
-      <c r="W80" s="4"/>
-      <c r="X80" s="4"/>
-      <c r="Y80" s="4"/>
-      <c r="Z80" s="5"/>
-    </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A81" s="58"/>
-      <c r="B81" s="1">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C81" s="2">
-        <v>160</v>
-      </c>
-      <c r="D81" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="E81" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F81" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="G81" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="H81" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="I81" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="J81" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="K81" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="L81" s="28"/>
-      <c r="M81" s="28"/>
-      <c r="N81" s="28"/>
-      <c r="O81" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="P81" s="44">
-        <v>225</v>
-      </c>
-      <c r="Q81" s="4">
-        <f t="shared" si="6"/>
-        <v>0.97685899412732691</v>
-      </c>
-      <c r="R81" s="53">
-        <v>0.83</v>
-      </c>
-      <c r="S81" s="44">
-        <v>8355</v>
-      </c>
-      <c r="T81" s="44">
-        <v>12</v>
-      </c>
-      <c r="U81" s="4">
-        <f t="shared" si="7"/>
-        <v>0.99856373427889211</v>
-      </c>
-      <c r="V81" s="5">
-        <f t="shared" si="8"/>
-        <v>0.85806849738763769</v>
-      </c>
-      <c r="W81" s="4"/>
-      <c r="X81" s="4"/>
-      <c r="Y81" s="4"/>
-      <c r="Z81" s="5"/>
+      <c r="W81" s="17"/>
+      <c r="X81" s="17"/>
+      <c r="Y81" s="17"/>
+      <c r="Z81" s="18"/>
     </row>
     <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82" s="58"/>
@@ -6443,7 +6451,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="C82" s="2">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="D82" s="25" t="s">
         <v>4</v>
@@ -6476,28 +6484,28 @@
         <v>6</v>
       </c>
       <c r="P82" s="44">
-        <v>211</v>
+        <v>333</v>
       </c>
       <c r="Q82" s="4">
-        <f t="shared" si="6"/>
-        <v>0.97829887893654222</v>
+        <f t="shared" si="12"/>
+        <v>0.96575131131338066</v>
       </c>
       <c r="R82" s="53">
         <v>0.83</v>
       </c>
       <c r="S82" s="44">
-        <v>8045</v>
+        <v>6347</v>
       </c>
       <c r="T82" s="44">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="U82" s="4">
-        <f t="shared" si="7"/>
-        <v>0.9992541951398477</v>
+        <f t="shared" si="13"/>
+        <v>0.99527335747604739</v>
       </c>
       <c r="V82" s="5">
-        <f t="shared" si="8"/>
-        <v>0.82680242724467756</v>
+        <f t="shared" si="14"/>
+        <v>0.6496965957112002</v>
       </c>
       <c r="W82" s="4"/>
       <c r="X82" s="4"/>
@@ -6510,7 +6518,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="C83" s="2">
-        <v>260</v>
+        <v>160</v>
       </c>
       <c r="D83" s="25" t="s">
         <v>4</v>
@@ -6543,28 +6551,28 @@
         <v>6</v>
       </c>
       <c r="P83" s="44">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="Q83" s="4">
-        <f t="shared" si="6"/>
-        <v>0.97881312351126193</v>
+        <f t="shared" si="12"/>
+        <v>0.97685899412732691</v>
       </c>
       <c r="R83" s="53">
         <v>0.83</v>
       </c>
       <c r="S83" s="44">
-        <v>8469</v>
+        <v>8355</v>
       </c>
       <c r="T83" s="44">
-        <v>5</v>
-      </c>
-      <c r="U83" s="7">
-        <f t="shared" si="7"/>
-        <v>0.99940961151258223</v>
-      </c>
-      <c r="V83" s="8">
-        <f t="shared" si="8"/>
-        <v>0.8705132160958553</v>
+        <v>12</v>
+      </c>
+      <c r="U83" s="4">
+        <f t="shared" si="13"/>
+        <v>0.99856373427889211</v>
+      </c>
+      <c r="V83" s="5">
+        <f t="shared" si="14"/>
+        <v>0.85806849738763769</v>
       </c>
       <c r="W83" s="4"/>
       <c r="X83" s="4"/>
@@ -6572,78 +6580,235 @@
       <c r="Z83" s="5"/>
     </row>
     <row r="84" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A84" s="59"/>
-      <c r="B84" s="10">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C84" s="11">
+      <c r="A84" s="58"/>
+      <c r="B84" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C84" s="2">
+        <v>200</v>
+      </c>
+      <c r="D84" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E84" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F84" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G84" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="H84" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="I84" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J84" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="K84" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="L84" s="28"/>
+      <c r="M84" s="28"/>
+      <c r="N84" s="28"/>
+      <c r="O84" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="P84" s="44">
+        <v>211</v>
+      </c>
+      <c r="Q84" s="4">
+        <f t="shared" si="12"/>
+        <v>0.97829887893654222</v>
+      </c>
+      <c r="R84" s="53">
+        <v>0.83</v>
+      </c>
+      <c r="S84" s="44">
+        <v>8045</v>
+      </c>
+      <c r="T84" s="44">
+        <v>6</v>
+      </c>
+      <c r="U84" s="4">
+        <f t="shared" si="13"/>
+        <v>0.9992541951398477</v>
+      </c>
+      <c r="V84" s="5">
+        <f t="shared" si="14"/>
+        <v>0.82680242724467756</v>
+      </c>
+      <c r="W84" s="4"/>
+      <c r="X84" s="4"/>
+      <c r="Y84" s="4"/>
+      <c r="Z84" s="5"/>
+    </row>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A85" s="58"/>
+      <c r="B85" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C85" s="2">
+        <v>260</v>
+      </c>
+      <c r="D85" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E85" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F85" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G85" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="H85" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="I85" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J85" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="K85" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="L85" s="28"/>
+      <c r="M85" s="28"/>
+      <c r="N85" s="28"/>
+      <c r="O85" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="P85" s="44">
+        <v>206</v>
+      </c>
+      <c r="Q85" s="4">
+        <f t="shared" si="12"/>
+        <v>0.97881312351126193</v>
+      </c>
+      <c r="R85" s="53">
+        <v>0.83</v>
+      </c>
+      <c r="S85" s="44">
+        <v>8469</v>
+      </c>
+      <c r="T85" s="44">
+        <v>5</v>
+      </c>
+      <c r="U85" s="7">
+        <f t="shared" si="13"/>
+        <v>0.99940961151258223</v>
+      </c>
+      <c r="V85" s="8">
+        <f t="shared" si="14"/>
+        <v>0.8705132160958553</v>
+      </c>
+      <c r="W85" s="4"/>
+      <c r="X85" s="4"/>
+      <c r="Y85" s="4"/>
+      <c r="Z85" s="5"/>
+    </row>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A86" s="59"/>
+      <c r="B86" s="10">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C86" s="11">
         <v>300</v>
       </c>
-      <c r="D84" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="E84" s="23" t="s">
+      <c r="D86" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E86" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="F84" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="G84" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H84" s="11" t="s">
+      <c r="F86" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G86" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H86" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="I84" s="11" t="s">
+      <c r="I86" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="J84" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="K84" s="11" t="s">
+      <c r="J86" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="K86" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="L84" s="11"/>
-      <c r="M84" s="11"/>
-      <c r="N84" s="11"/>
-      <c r="O84" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="P84" s="43">
+      <c r="L86" s="11"/>
+      <c r="M86" s="11"/>
+      <c r="N86" s="11"/>
+      <c r="O86" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="P86" s="43">
         <v>207</v>
       </c>
-      <c r="Q84" s="12">
-        <f t="shared" si="6"/>
+      <c r="Q86" s="12">
+        <f t="shared" si="12"/>
         <v>0.97871027459631799</v>
       </c>
-      <c r="R84" s="54">
+      <c r="R86" s="54">
         <v>0.83</v>
       </c>
-      <c r="S84" s="43">
+      <c r="S86" s="43">
         <v>8539</v>
       </c>
-      <c r="T84" s="47">
-        <v>6</v>
-      </c>
-      <c r="U84" s="36">
-        <f t="shared" si="7"/>
+      <c r="T86" s="47">
+        <v>6</v>
+      </c>
+      <c r="U86" s="36">
+        <f t="shared" si="13"/>
         <v>0.99929734159738492</v>
       </c>
-      <c r="V84" s="37">
-        <f t="shared" si="8"/>
+      <c r="V86" s="37">
+        <f t="shared" si="14"/>
         <v>0.87760979122698768</v>
       </c>
-      <c r="W84" s="12"/>
-      <c r="X84" s="12"/>
-      <c r="Y84" s="12"/>
-      <c r="Z84" s="14"/>
+      <c r="W86" s="12"/>
+      <c r="X86" s="12"/>
+      <c r="Y86" s="12"/>
+      <c r="Z86" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A81:A86"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="A69:A72"/>
+    <mergeCell ref="A73:A76"/>
+    <mergeCell ref="A77:A80"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="P1:V1"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A45:A48"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A7:A10"/>
@@ -6654,30 +6819,7 @@
     <mergeCell ref="A23:A26"/>
     <mergeCell ref="A31:A34"/>
     <mergeCell ref="A35:A38"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="P1:V1"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A79:A84"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="A67:A70"/>
-    <mergeCell ref="A71:A74"/>
-    <mergeCell ref="A75:A78"/>
+    <mergeCell ref="A39:A44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/images/测试结果.xlsx
+++ b/images/测试结果.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="72">
   <si>
     <t>√</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,10 +143,6 @@
   </si>
   <si>
     <t>×</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>√</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -265,21 +261,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>alance</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5e-5+5e-3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -353,6 +334,30 @@
   </si>
   <si>
     <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mixnet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mixnet</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -492,7 +497,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -664,6 +669,12 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -673,6 +684,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -680,39 +724,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1019,10 +1030,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z86"/>
+  <dimension ref="A1:Z88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+    <sheetView tabSelected="1" topLeftCell="B61" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U91" sqref="U91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.25"/>
@@ -1047,81 +1058,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="70" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="68" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="72" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="65" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="65" t="s">
+      <c r="F1" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="65" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="65" t="s">
+      <c r="G1" s="68" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="65" t="s">
+      <c r="I1" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="65" t="s">
+      <c r="J1" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="65" t="s">
+      <c r="K1" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="65" t="s">
+      <c r="L1" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="65" t="s">
+      <c r="M1" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="65" t="s">
+      <c r="N1" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="68" t="s">
+      <c r="O1" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="63" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="64"/>
-      <c r="Z1" s="64"/>
+      <c r="P1" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="70"/>
+      <c r="X1" s="71"/>
+      <c r="Y1" s="71"/>
+      <c r="Z1" s="71"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="59"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="69"/>
+      <c r="A2" s="61"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="65"/>
       <c r="P2" s="45" t="s">
         <v>20</v>
       </c>
@@ -1149,8 +1160,8 @@
       <c r="Z2" s="35"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="61" t="s">
-        <v>65</v>
+      <c r="A3" s="74" t="s">
+        <v>63</v>
       </c>
       <c r="B3" s="22">
         <v>5.0000000000000001E-4</v>
@@ -1171,7 +1182,7 @@
         <v>4</v>
       </c>
       <c r="H3" s="32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I3" s="22" t="s">
         <v>6</v>
@@ -1180,7 +1191,7 @@
         <v>31</v>
       </c>
       <c r="K3" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L3" s="22"/>
       <c r="M3" s="22"/>
@@ -1218,7 +1229,7 @@
       <c r="Z3" s="18"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="58"/>
+      <c r="A4" s="60"/>
       <c r="B4" s="19">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -1238,7 +1249,7 @@
         <v>4</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I4" s="19" t="s">
         <v>6</v>
@@ -1285,7 +1296,7 @@
       <c r="Z4" s="5"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="58"/>
+      <c r="A5" s="60"/>
       <c r="B5" s="1">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -1305,7 +1316,7 @@
         <v>4</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I5" s="19" t="s">
         <v>6</v>
@@ -1352,7 +1363,7 @@
       <c r="Z5" s="5"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="59"/>
+      <c r="A6" s="61"/>
       <c r="B6" s="10">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -1372,7 +1383,7 @@
         <v>4</v>
       </c>
       <c r="H6" s="23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I6" s="23" t="s">
         <v>6</v>
@@ -1419,8 +1430,8 @@
       <c r="Z6" s="14"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="57" t="s">
-        <v>49</v>
+      <c r="A7" s="59" t="s">
+        <v>47</v>
       </c>
       <c r="B7" s="19">
         <v>5.0000000000000002E-5</v>
@@ -1441,7 +1452,7 @@
         <v>4</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I7" s="19" t="s">
         <v>6</v>
@@ -1488,7 +1499,7 @@
       <c r="Z7" s="27"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="58"/>
+      <c r="A8" s="60"/>
       <c r="B8" s="19">
         <v>5.0000000000000002E-5</v>
       </c>
@@ -1508,7 +1519,7 @@
         <v>4</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I8" s="19" t="s">
         <v>6</v>
@@ -1555,7 +1566,7 @@
       <c r="Z8" s="5"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="58"/>
+      <c r="A9" s="60"/>
       <c r="B9" s="19">
         <v>5.0000000000000002E-5</v>
       </c>
@@ -1575,7 +1586,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I9" s="19" t="s">
         <v>6</v>
@@ -1622,7 +1633,7 @@
       <c r="Z9" s="8"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="59"/>
+      <c r="A10" s="61"/>
       <c r="B10" s="23">
         <v>5.0000000000000002E-5</v>
       </c>
@@ -1642,7 +1653,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I10" s="23" t="s">
         <v>6</v>
@@ -1689,7 +1700,7 @@
       <c r="Z10" s="14"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="62">
+      <c r="A11" s="75">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="B11" s="22">
@@ -1758,7 +1769,7 @@
       <c r="Z11" s="18"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="58"/>
+      <c r="A12" s="60"/>
       <c r="B12" s="1">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -1823,7 +1834,7 @@
       <c r="Z12" s="5"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="58"/>
+      <c r="A13" s="60"/>
       <c r="B13" s="1">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -1890,7 +1901,7 @@
       <c r="Z13" s="5"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="59"/>
+      <c r="A14" s="61"/>
       <c r="B14" s="10">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -1957,7 +1968,7 @@
       <c r="Z14" s="14"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="57" t="s">
+      <c r="A15" s="59" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="15">
@@ -2026,7 +2037,7 @@
       <c r="Z15" s="18"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="58"/>
+      <c r="A16" s="60"/>
       <c r="B16" s="1">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -2093,7 +2104,7 @@
       <c r="Z16" s="5"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" s="58"/>
+      <c r="A17" s="60"/>
       <c r="B17" s="1">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -2160,7 +2171,7 @@
       <c r="Z17" s="5"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18" s="59"/>
+      <c r="A18" s="61"/>
       <c r="B18" s="10">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -2227,8 +2238,8 @@
       <c r="Z18" s="14"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19" s="57" t="s">
-        <v>38</v>
+      <c r="A19" s="59" t="s">
+        <v>37</v>
       </c>
       <c r="B19" s="15">
         <v>5.0000000000000001E-4</v>
@@ -2296,7 +2307,7 @@
       <c r="Z19" s="18"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" s="58"/>
+      <c r="A20" s="60"/>
       <c r="B20" s="1">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -2361,7 +2372,7 @@
       <c r="Z20" s="5"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A21" s="58"/>
+      <c r="A21" s="60"/>
       <c r="B21" s="1">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -2428,7 +2439,7 @@
       <c r="Z21" s="5"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A22" s="59"/>
+      <c r="A22" s="61"/>
       <c r="B22" s="10">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -2495,8 +2506,8 @@
       <c r="Z22" s="14"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A23" s="57" t="s">
-        <v>41</v>
+      <c r="A23" s="59" t="s">
+        <v>40</v>
       </c>
       <c r="B23" s="15">
         <v>5.0000000000000001E-4</v>
@@ -2514,7 +2525,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H23" s="22" t="s">
         <v>15</v>
@@ -2564,7 +2575,7 @@
       <c r="Z23" s="18"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="58"/>
+      <c r="A24" s="60"/>
       <c r="B24" s="1">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -2631,7 +2642,7 @@
       <c r="Z24" s="5"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A25" s="58"/>
+      <c r="A25" s="60"/>
       <c r="B25" s="1">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -2698,7 +2709,7 @@
       <c r="Z25" s="5"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A26" s="59"/>
+      <c r="A26" s="61"/>
       <c r="B26" s="10">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -2765,8 +2776,8 @@
       <c r="Z26" s="14"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A27" s="57" t="s">
-        <v>40</v>
+      <c r="A27" s="59" t="s">
+        <v>39</v>
       </c>
       <c r="B27" s="15">
         <v>5.0000000000000001E-4</v>
@@ -2787,7 +2798,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I27" s="32" t="s">
         <v>6</v>
@@ -2834,7 +2845,7 @@
       <c r="Z27" s="18"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A28" s="58"/>
+      <c r="A28" s="60"/>
       <c r="B28" s="1">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -2854,7 +2865,7 @@
         <v>4</v>
       </c>
       <c r="H28" s="28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I28" s="28" t="s">
         <v>6</v>
@@ -2901,7 +2912,7 @@
       <c r="Z28" s="5"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A29" s="58"/>
+      <c r="A29" s="60"/>
       <c r="B29" s="1">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -2921,7 +2932,7 @@
         <v>4</v>
       </c>
       <c r="H29" s="28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I29" s="28" t="s">
         <v>6</v>
@@ -2968,7 +2979,7 @@
       <c r="Z29" s="5"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A30" s="59"/>
+      <c r="A30" s="61"/>
       <c r="B30" s="10">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -2988,7 +2999,7 @@
         <v>4</v>
       </c>
       <c r="H30" s="29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I30" s="11" t="s">
         <v>6</v>
@@ -3035,8 +3046,8 @@
       <c r="Z30" s="14"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A31" s="57" t="s">
-        <v>42</v>
+      <c r="A31" s="59" t="s">
+        <v>41</v>
       </c>
       <c r="B31" s="15">
         <v>5.0000000000000001E-4</v>
@@ -3057,7 +3068,7 @@
         <v>0</v>
       </c>
       <c r="H31" s="32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I31" s="32" t="s">
         <v>6</v>
@@ -3104,7 +3115,7 @@
       <c r="Z31" s="18"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A32" s="58"/>
+      <c r="A32" s="60"/>
       <c r="B32" s="1">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -3124,7 +3135,7 @@
         <v>4</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I32" s="28" t="s">
         <v>6</v>
@@ -3171,7 +3182,7 @@
       <c r="Z32" s="5"/>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A33" s="58"/>
+      <c r="A33" s="60"/>
       <c r="B33" s="1">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -3191,7 +3202,7 @@
         <v>4</v>
       </c>
       <c r="H33" s="28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I33" s="28" t="s">
         <v>6</v>
@@ -3238,7 +3249,7 @@
       <c r="Z33" s="5"/>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A34" s="59"/>
+      <c r="A34" s="61"/>
       <c r="B34" s="10">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -3258,7 +3269,7 @@
         <v>4</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I34" s="11" t="s">
         <v>6</v>
@@ -3305,8 +3316,8 @@
       <c r="Z34" s="14"/>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A35" s="57" t="s">
-        <v>43</v>
+      <c r="A35" s="59" t="s">
+        <v>42</v>
       </c>
       <c r="B35" s="1">
         <v>5.0000000000000001E-4</v>
@@ -3327,7 +3338,7 @@
         <v>0</v>
       </c>
       <c r="H35" s="32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I35" s="28" t="s">
         <v>6</v>
@@ -3348,7 +3359,7 @@
         <v>625</v>
       </c>
       <c r="Q35" s="4">
-        <f t="shared" ref="Q35:Q68" si="3">1-(P35+0.0000001)/9723</f>
+        <f t="shared" ref="Q35:Q64" si="3">1-(P35+0.0000001)/9723</f>
         <v>0.93571942814974807</v>
       </c>
       <c r="R35" s="53">
@@ -3361,11 +3372,11 @@
         <v>0</v>
       </c>
       <c r="U35" s="4">
-        <f t="shared" ref="U35:U68" si="4">1-(T35+0.0000001)/(S35+0.0000001)</f>
+        <f t="shared" ref="U35:U64" si="4">1-(T35+0.0000001)/(S35+0.0000001)</f>
         <v>0.99999999997549016</v>
       </c>
       <c r="V35" s="5">
-        <f t="shared" ref="V35:V68" si="5">(S35-T35+0.0000001)/9723</f>
+        <f t="shared" ref="V35:V64" si="5">(S35-T35+0.0000001)/9723</f>
         <v>0.41962357298159003</v>
       </c>
       <c r="W35" s="4"/>
@@ -3374,7 +3385,7 @@
       <c r="Z35" s="5"/>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A36" s="58"/>
+      <c r="A36" s="60"/>
       <c r="B36" s="1">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -3439,7 +3450,7 @@
       <c r="Z36" s="5"/>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A37" s="58"/>
+      <c r="A37" s="60"/>
       <c r="B37" s="1">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -3504,7 +3515,7 @@
       <c r="Z37" s="5"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A38" s="59"/>
+      <c r="A38" s="61"/>
       <c r="B38" s="1">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -3571,7 +3582,7 @@
       <c r="Z38" s="5"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A39" s="57" t="s">
+      <c r="A39" s="59" t="s">
         <v>18</v>
       </c>
       <c r="B39" s="15">
@@ -3593,7 +3604,7 @@
         <v>0</v>
       </c>
       <c r="H39" s="32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I39" s="32" t="s">
         <v>6</v>
@@ -3602,7 +3613,7 @@
         <v>6</v>
       </c>
       <c r="K39" s="22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L39" s="22"/>
       <c r="M39" s="22"/>
@@ -3640,7 +3651,7 @@
       <c r="Z39" s="18"/>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A40" s="58"/>
+      <c r="A40" s="60"/>
       <c r="B40" s="1">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -3667,7 +3678,7 @@
         <v>6</v>
       </c>
       <c r="K40" s="19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L40" s="19"/>
       <c r="M40" s="19"/>
@@ -3705,7 +3716,7 @@
       <c r="Z40" s="5"/>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A41" s="58"/>
+      <c r="A41" s="60"/>
       <c r="B41" s="1">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -3734,7 +3745,7 @@
         <v>6</v>
       </c>
       <c r="K41" s="19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L41" s="19"/>
       <c r="M41" s="19"/>
@@ -3772,7 +3783,7 @@
       <c r="Z41" s="5"/>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A42" s="58"/>
+      <c r="A42" s="60"/>
       <c r="B42" s="1">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -3801,7 +3812,7 @@
         <v>6</v>
       </c>
       <c r="K42" s="19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L42" s="19"/>
       <c r="M42" s="19"/>
@@ -3839,7 +3850,7 @@
       <c r="Z42" s="5"/>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A43" s="58"/>
+      <c r="A43" s="60"/>
       <c r="B43" s="1">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -3868,7 +3879,7 @@
         <v>6</v>
       </c>
       <c r="K43" s="19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L43" s="19"/>
       <c r="M43" s="19"/>
@@ -3906,7 +3917,7 @@
       <c r="Z43" s="5"/>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A44" s="59"/>
+      <c r="A44" s="61"/>
       <c r="B44" s="1">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -3935,7 +3946,7 @@
         <v>6</v>
       </c>
       <c r="K44" s="19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L44" s="19"/>
       <c r="M44" s="19"/>
@@ -3973,8 +3984,8 @@
       <c r="Z44" s="5"/>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A45" s="57" t="s">
-        <v>45</v>
+      <c r="A45" s="59" t="s">
+        <v>44</v>
       </c>
       <c r="B45" s="15">
         <v>5.0000000000000001E-4</v>
@@ -3998,7 +4009,7 @@
         <v>15</v>
       </c>
       <c r="I45" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J45" s="22" t="s">
         <v>6</v>
@@ -4042,7 +4053,7 @@
       <c r="Z45" s="18"/>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A46" s="58"/>
+      <c r="A46" s="60"/>
       <c r="B46" s="1">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -4063,7 +4074,7 @@
         <v>15</v>
       </c>
       <c r="I46" s="19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J46" s="19" t="s">
         <v>6</v>
@@ -4107,7 +4118,7 @@
       <c r="Z46" s="5"/>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A47" s="58"/>
+      <c r="A47" s="60"/>
       <c r="B47" s="1">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -4130,7 +4141,7 @@
         <v>15</v>
       </c>
       <c r="I47" s="19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J47" s="19" t="s">
         <v>6</v>
@@ -4174,7 +4185,7 @@
       <c r="Z47" s="5"/>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A48" s="59"/>
+      <c r="A48" s="61"/>
       <c r="B48" s="23">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -4197,7 +4208,7 @@
         <v>15</v>
       </c>
       <c r="I48" s="23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J48" s="23" t="s">
         <v>6</v>
@@ -4241,8 +4252,8 @@
       <c r="Z48" s="14"/>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A49" s="57" t="s">
-        <v>46</v>
+      <c r="A49" s="59" t="s">
+        <v>45</v>
       </c>
       <c r="B49" s="15">
         <v>5.0000000000000001E-4</v>
@@ -4266,7 +4277,7 @@
         <v>15</v>
       </c>
       <c r="I49" s="22" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J49" s="22" t="s">
         <v>6</v>
@@ -4310,7 +4321,7 @@
       <c r="Z49" s="18"/>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A50" s="58"/>
+      <c r="A50" s="60"/>
       <c r="B50" s="1">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -4333,7 +4344,7 @@
         <v>15</v>
       </c>
       <c r="I50" s="19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J50" s="19" t="s">
         <v>6</v>
@@ -4377,7 +4388,7 @@
       <c r="Z50" s="5"/>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A51" s="58"/>
+      <c r="A51" s="60"/>
       <c r="B51" s="19">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -4400,7 +4411,7 @@
         <v>15</v>
       </c>
       <c r="I51" s="19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J51" s="19" t="s">
         <v>6</v>
@@ -4444,7 +4455,7 @@
       <c r="Z51" s="5"/>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A52" s="59"/>
+      <c r="A52" s="61"/>
       <c r="B52" s="23">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -4467,7 +4478,7 @@
         <v>15</v>
       </c>
       <c r="I52" s="29" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J52" s="29" t="s">
         <v>6</v>
@@ -4511,8 +4522,8 @@
       <c r="Z52" s="14"/>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A53" s="57" t="s">
-        <v>47</v>
+      <c r="A53" s="59" t="s">
+        <v>46</v>
       </c>
       <c r="B53" s="15">
         <v>5.0000000000000001E-4</v>
@@ -4580,7 +4591,7 @@
       <c r="Z53" s="18"/>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A54" s="58"/>
+      <c r="A54" s="60"/>
       <c r="B54" s="1">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -4647,7 +4658,7 @@
       <c r="Z54" s="5"/>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A55" s="58"/>
+      <c r="A55" s="60"/>
       <c r="B55" s="1">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -4714,7 +4725,7 @@
       <c r="Z55" s="5"/>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A56" s="59"/>
+      <c r="A56" s="61"/>
       <c r="B56" s="10">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -4740,7 +4751,7 @@
         <v>6</v>
       </c>
       <c r="J56" s="29" t="s">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K56" s="11" t="s">
         <v>6</v>
@@ -4749,7 +4760,7 @@
       <c r="M56" s="11"/>
       <c r="N56" s="11"/>
       <c r="O56" s="42" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="P56" s="43">
         <v>324</v>
@@ -4781,8 +4792,8 @@
       <c r="Z56" s="14"/>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A57" s="57" t="s">
-        <v>48</v>
+      <c r="A57" s="59" t="s">
+        <v>50</v>
       </c>
       <c r="B57" s="15">
         <v>5.0000000000000001E-4</v>
@@ -4803,10 +4814,10 @@
         <v>0</v>
       </c>
       <c r="H57" s="32" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="I57" s="32" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="J57" s="32" t="s">
         <v>6</v>
@@ -4818,25 +4829,31 @@
       <c r="M57" s="32"/>
       <c r="N57" s="32"/>
       <c r="O57" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="P57" s="46"/>
+        <v>6</v>
+      </c>
+      <c r="P57" s="46">
+        <v>342</v>
+      </c>
       <c r="Q57" s="17">
         <f t="shared" si="3"/>
-        <v>0.99999999998971512</v>
+        <v>0.96482567107888517</v>
       </c>
       <c r="R57" s="52">
-        <v>0.95</v>
-      </c>
-      <c r="S57" s="46"/>
-      <c r="T57" s="50"/>
+        <v>0.99</v>
+      </c>
+      <c r="S57" s="46">
+        <v>3861</v>
+      </c>
+      <c r="T57" s="50">
+        <v>7</v>
+      </c>
       <c r="U57" s="30">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.99818699816114509</v>
       </c>
       <c r="V57" s="18">
         <f t="shared" si="5"/>
-        <v>1.0284891494394734E-11</v>
+        <v>0.39637971820425794</v>
       </c>
       <c r="W57" s="17"/>
       <c r="X57" s="17"/>
@@ -4844,7 +4861,7 @@
       <c r="Z57" s="18"/>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A58" s="58"/>
+      <c r="A58" s="60"/>
       <c r="B58" s="1">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -4864,7 +4881,7 @@
         <v>4</v>
       </c>
       <c r="H58" s="28" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="I58" s="28" t="s">
         <v>6</v>
@@ -4879,25 +4896,31 @@
       <c r="M58" s="28"/>
       <c r="N58" s="28"/>
       <c r="O58" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="P58" s="44"/>
+        <v>6</v>
+      </c>
+      <c r="P58" s="44">
+        <v>201</v>
+      </c>
       <c r="Q58" s="4">
         <f t="shared" si="3"/>
-        <v>0.99999999998971512</v>
+        <v>0.97932736808598164</v>
       </c>
       <c r="R58" s="53">
-        <v>0.95</v>
-      </c>
-      <c r="S58" s="44"/>
-      <c r="T58" s="44"/>
+        <v>0.99</v>
+      </c>
+      <c r="S58" s="44">
+        <v>7369</v>
+      </c>
+      <c r="T58" s="44">
+        <v>4</v>
+      </c>
       <c r="U58" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.99945718549328999</v>
       </c>
       <c r="V58" s="5">
         <f t="shared" si="5"/>
-        <v>1.0284891494394734E-11</v>
+        <v>0.75748225857245699</v>
       </c>
       <c r="W58" s="4"/>
       <c r="X58" s="4"/>
@@ -4905,7 +4928,7 @@
       <c r="Z58" s="5"/>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A59" s="58"/>
+      <c r="A59" s="60"/>
       <c r="B59" s="1">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -4925,7 +4948,7 @@
         <v>4</v>
       </c>
       <c r="H59" s="28" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="I59" s="28" t="s">
         <v>6</v>
@@ -4940,25 +4963,31 @@
       <c r="M59" s="28"/>
       <c r="N59" s="28"/>
       <c r="O59" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="P59" s="44"/>
+        <v>6</v>
+      </c>
+      <c r="P59" s="44">
+        <v>184</v>
+      </c>
       <c r="Q59" s="4">
         <f t="shared" si="3"/>
-        <v>0.99999999998971512</v>
+        <v>0.98107579964002878</v>
       </c>
       <c r="R59" s="53">
-        <v>0.95</v>
-      </c>
-      <c r="S59" s="44"/>
-      <c r="T59" s="44"/>
+        <v>0.99</v>
+      </c>
+      <c r="S59" s="44">
+        <v>8099</v>
+      </c>
+      <c r="T59" s="44">
+        <v>12</v>
+      </c>
       <c r="U59" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.99851833558465841</v>
       </c>
       <c r="V59" s="5">
         <f t="shared" si="5"/>
-        <v>1.0284891494394734E-11</v>
+        <v>0.83173917516198703</v>
       </c>
       <c r="W59" s="4"/>
       <c r="X59" s="4"/>
@@ -4966,7 +4995,7 @@
       <c r="Z59" s="5"/>
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A60" s="59"/>
+      <c r="A60" s="61"/>
       <c r="B60" s="10">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -4986,7 +5015,7 @@
         <v>4</v>
       </c>
       <c r="H60" s="11" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="I60" s="11" t="s">
         <v>6</v>
@@ -5001,25 +5030,31 @@
       <c r="M60" s="11"/>
       <c r="N60" s="11"/>
       <c r="O60" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="P60" s="43"/>
+        <v>6</v>
+      </c>
+      <c r="P60" s="43">
+        <v>182</v>
+      </c>
       <c r="Q60" s="12">
         <f t="shared" si="3"/>
-        <v>0.99999999998971512</v>
+        <v>0.98128149746991666</v>
       </c>
       <c r="R60" s="54">
-        <v>0.95</v>
-      </c>
-      <c r="S60" s="43"/>
-      <c r="T60" s="45"/>
+        <v>0.99</v>
+      </c>
+      <c r="S60" s="43">
+        <v>8188</v>
+      </c>
+      <c r="T60" s="47">
+        <v>8</v>
+      </c>
       <c r="U60" s="20">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.99902296041769634</v>
       </c>
       <c r="V60" s="13">
         <f t="shared" si="5"/>
-        <v>1.0284891494394734E-11</v>
+        <v>0.84130412425177414</v>
       </c>
       <c r="W60" s="12"/>
       <c r="X60" s="12"/>
@@ -5027,14 +5062,14 @@
       <c r="Z60" s="14"/>
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A61" s="57" t="s">
-        <v>52</v>
+      <c r="A61" s="59" t="s">
+        <v>55</v>
       </c>
       <c r="B61" s="15">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="C61" s="2">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D61" s="24" t="s">
         <v>4</v>
@@ -5046,16 +5081,16 @@
         <v>6</v>
       </c>
       <c r="G61" s="32" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="H61" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="I61" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="J61" s="32" t="s">
         <v>53</v>
-      </c>
-      <c r="I61" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="J61" s="32" t="s">
-        <v>6</v>
       </c>
       <c r="K61" s="32" t="s">
         <v>6</v>
@@ -5067,28 +5102,28 @@
         <v>6</v>
       </c>
       <c r="P61" s="46">
-        <v>342</v>
+        <v>288</v>
       </c>
       <c r="Q61" s="17">
         <f t="shared" si="3"/>
-        <v>0.96482567107888517</v>
+        <v>0.9703795124858583</v>
       </c>
       <c r="R61" s="52">
         <v>0.99</v>
       </c>
       <c r="S61" s="46">
-        <v>3861</v>
+        <v>553</v>
       </c>
       <c r="T61" s="50">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U61" s="30">
         <f t="shared" si="4"/>
-        <v>0.99818699816114509</v>
+        <v>0.99999999981916821</v>
       </c>
       <c r="V61" s="18">
         <f t="shared" si="5"/>
-        <v>0.39637971820425794</v>
+        <v>5.687544997428777E-2</v>
       </c>
       <c r="W61" s="17"/>
       <c r="X61" s="17"/>
@@ -5096,12 +5131,12 @@
       <c r="Z61" s="18"/>
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A62" s="58"/>
+      <c r="A62" s="60"/>
       <c r="B62" s="1">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="C62" s="2">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="D62" s="25" t="s">
         <v>4</v>
@@ -5116,13 +5151,13 @@
         <v>4</v>
       </c>
       <c r="H62" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="I62" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="J62" s="28" t="s">
         <v>53</v>
-      </c>
-      <c r="I62" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="J62" s="28" t="s">
-        <v>6</v>
       </c>
       <c r="K62" s="28" t="s">
         <v>6</v>
@@ -5134,28 +5169,28 @@
         <v>6</v>
       </c>
       <c r="P62" s="44">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="Q62" s="4">
         <f t="shared" si="3"/>
-        <v>0.97932736808598164</v>
+        <v>0.97840172785148616</v>
       </c>
       <c r="R62" s="53">
         <v>0.99</v>
       </c>
       <c r="S62" s="44">
-        <v>7369</v>
+        <v>4349</v>
       </c>
       <c r="T62" s="44">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U62" s="4">
         <f t="shared" si="4"/>
-        <v>0.99945718549328999</v>
+        <v>0.99977006206024899</v>
       </c>
       <c r="V62" s="5">
         <f t="shared" si="5"/>
-        <v>0.75748225857245699</v>
+        <v>0.44718708218656794</v>
       </c>
       <c r="W62" s="4"/>
       <c r="X62" s="4"/>
@@ -5163,12 +5198,12 @@
       <c r="Z62" s="5"/>
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A63" s="58"/>
+      <c r="A63" s="60"/>
       <c r="B63" s="1">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="C63" s="2">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="D63" s="25" t="s">
         <v>4</v>
@@ -5183,13 +5218,13 @@
         <v>4</v>
       </c>
       <c r="H63" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="I63" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="J63" s="28" t="s">
         <v>53</v>
-      </c>
-      <c r="I63" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="J63" s="28" t="s">
-        <v>6</v>
       </c>
       <c r="K63" s="28" t="s">
         <v>6</v>
@@ -5201,28 +5236,28 @@
         <v>6</v>
       </c>
       <c r="P63" s="44">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="Q63" s="4">
         <f t="shared" si="3"/>
-        <v>0.98107579964002878</v>
+        <v>0.9792245191710377</v>
       </c>
       <c r="R63" s="53">
         <v>0.99</v>
       </c>
       <c r="S63" s="44">
-        <v>8099</v>
+        <v>5944</v>
       </c>
       <c r="T63" s="44">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="U63" s="4">
         <f t="shared" si="4"/>
-        <v>0.99851833558465841</v>
+        <v>0.99983176310565558</v>
       </c>
       <c r="V63" s="5">
         <f t="shared" si="5"/>
-        <v>0.83173917516198703</v>
+        <v>0.61123110152216398</v>
       </c>
       <c r="W63" s="4"/>
       <c r="X63" s="4"/>
@@ -5230,12 +5265,12 @@
       <c r="Z63" s="5"/>
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A64" s="59"/>
+      <c r="A64" s="61"/>
       <c r="B64" s="10">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="C64" s="11">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="D64" s="26" t="s">
         <v>4</v>
@@ -5250,13 +5285,13 @@
         <v>4</v>
       </c>
       <c r="H64" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I64" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J64" s="11" t="s">
         <v>53</v>
-      </c>
-      <c r="I64" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="J64" s="29" t="s">
-        <v>6</v>
       </c>
       <c r="K64" s="11" t="s">
         <v>6</v>
@@ -5268,28 +5303,28 @@
         <v>6</v>
       </c>
       <c r="P64" s="43">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="Q64" s="12">
         <f t="shared" si="3"/>
-        <v>0.98128149746991666</v>
+        <v>0.97891597242620587</v>
       </c>
       <c r="R64" s="54">
         <v>0.99</v>
       </c>
       <c r="S64" s="43">
-        <v>8188</v>
+        <v>6249</v>
       </c>
       <c r="T64" s="47">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="U64" s="20">
         <f t="shared" si="4"/>
-        <v>0.99902296041769634</v>
+        <v>0.99983997437990335</v>
       </c>
       <c r="V64" s="13">
         <f t="shared" si="5"/>
-        <v>0.84130412425177414</v>
+        <v>0.64260002058006782</v>
       </c>
       <c r="W64" s="12"/>
       <c r="X64" s="12"/>
@@ -5297,7 +5332,7 @@
       <c r="Z64" s="14"/>
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A65" s="57" t="s">
+      <c r="A65" s="59" t="s">
         <v>57</v>
       </c>
       <c r="B65" s="15">
@@ -5316,16 +5351,16 @@
         <v>6</v>
       </c>
       <c r="G65" s="32" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="H65" s="32" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I65" s="32" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="J65" s="32" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="K65" s="32" t="s">
         <v>6</v>
@@ -5337,28 +5372,28 @@
         <v>6</v>
       </c>
       <c r="P65" s="46">
-        <v>288</v>
+        <v>507</v>
       </c>
       <c r="Q65" s="17">
-        <f t="shared" si="3"/>
-        <v>0.9703795124858583</v>
+        <f t="shared" ref="Q65:Q82" si="12">1-(P65+0.0000001)/9723</f>
+        <v>0.94785560011313386</v>
       </c>
       <c r="R65" s="52">
-        <v>0.99</v>
+        <v>0.85</v>
       </c>
       <c r="S65" s="46">
-        <v>553</v>
+        <v>4753</v>
       </c>
       <c r="T65" s="50">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U65" s="30">
-        <f t="shared" si="4"/>
-        <v>0.99999999981916821</v>
+        <f t="shared" ref="U65:U82" si="13">1-(T65+0.0000001)/(S65+0.0000001)</f>
+        <v>0.99768567218603654</v>
       </c>
       <c r="V65" s="18">
-        <f t="shared" si="5"/>
-        <v>5.687544997428777E-2</v>
+        <f t="shared" ref="V65:V82" si="14">(S65-T65+0.0000001)/9723</f>
+        <v>0.48770955467448318</v>
       </c>
       <c r="W65" s="17"/>
       <c r="X65" s="17"/>
@@ -5366,7 +5401,7 @@
       <c r="Z65" s="18"/>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A66" s="58"/>
+      <c r="A66" s="60"/>
       <c r="B66" s="1">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -5386,13 +5421,13 @@
         <v>4</v>
       </c>
       <c r="H66" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="I66" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="I66" s="28" t="s">
-        <v>6</v>
-      </c>
       <c r="J66" s="28" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="K66" s="28" t="s">
         <v>6</v>
@@ -5404,28 +5439,28 @@
         <v>6</v>
       </c>
       <c r="P66" s="44">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="Q66" s="4">
-        <f t="shared" si="3"/>
-        <v>0.97840172785148616</v>
+        <f t="shared" si="12"/>
+        <v>0.97685899412732691</v>
       </c>
       <c r="R66" s="53">
-        <v>0.99</v>
+        <v>0.85</v>
       </c>
       <c r="S66" s="44">
-        <v>4349</v>
+        <v>8376</v>
       </c>
       <c r="T66" s="44">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="U66" s="4">
-        <f t="shared" si="4"/>
-        <v>0.99977006206024899</v>
+        <f t="shared" si="13"/>
+        <v>0.99868672396133373</v>
       </c>
       <c r="V66" s="5">
-        <f t="shared" si="5"/>
-        <v>0.44718708218656794</v>
+        <f t="shared" si="14"/>
+        <v>0.86033117351640453</v>
       </c>
       <c r="W66" s="4"/>
       <c r="X66" s="4"/>
@@ -5433,7 +5468,7 @@
       <c r="Z66" s="5"/>
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A67" s="58"/>
+      <c r="A67" s="60"/>
       <c r="B67" s="1">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -5453,13 +5488,13 @@
         <v>4</v>
       </c>
       <c r="H67" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="I67" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="I67" s="28" t="s">
-        <v>6</v>
-      </c>
       <c r="J67" s="28" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="K67" s="28" t="s">
         <v>6</v>
@@ -5471,28 +5506,28 @@
         <v>6</v>
       </c>
       <c r="P67" s="44">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="Q67" s="4">
-        <f t="shared" si="3"/>
-        <v>0.9792245191710377</v>
+        <f t="shared" si="12"/>
+        <v>0.98045870615036512</v>
       </c>
       <c r="R67" s="53">
-        <v>0.99</v>
+        <v>0.85</v>
       </c>
       <c r="S67" s="44">
-        <v>5944</v>
+        <v>8425</v>
       </c>
       <c r="T67" s="44">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="U67" s="4">
-        <f t="shared" si="4"/>
-        <v>0.99983176310565558</v>
+        <f t="shared" si="13"/>
+        <v>0.9985756676439338</v>
       </c>
       <c r="V67" s="5">
-        <f t="shared" si="5"/>
-        <v>0.61123110152216398</v>
+        <f t="shared" si="14"/>
+        <v>0.865267921433714</v>
       </c>
       <c r="W67" s="4"/>
       <c r="X67" s="4"/>
@@ -5500,7 +5535,7 @@
       <c r="Z67" s="5"/>
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A68" s="59"/>
+      <c r="A68" s="61"/>
       <c r="B68" s="10">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -5520,13 +5555,13 @@
         <v>4</v>
       </c>
       <c r="H68" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I68" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="I68" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="J68" s="11" t="s">
-        <v>55</v>
+      <c r="J68" s="29" t="s">
+        <v>6</v>
       </c>
       <c r="K68" s="11" t="s">
         <v>6</v>
@@ -5538,28 +5573,28 @@
         <v>6</v>
       </c>
       <c r="P68" s="43">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="Q68" s="12">
-        <f t="shared" si="3"/>
-        <v>0.97891597242620587</v>
+        <f t="shared" si="12"/>
+        <v>0.98025300832047724</v>
       </c>
       <c r="R68" s="54">
-        <v>0.99</v>
+        <v>0.85</v>
       </c>
       <c r="S68" s="43">
-        <v>6249</v>
+        <v>8286</v>
       </c>
       <c r="T68" s="47">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U68" s="20">
-        <f t="shared" si="4"/>
-        <v>0.99983997437990335</v>
+        <f t="shared" si="13"/>
+        <v>0.99939657251992042</v>
       </c>
       <c r="V68" s="13">
-        <f t="shared" si="5"/>
-        <v>0.64260002058006782</v>
+        <f t="shared" si="14"/>
+        <v>0.85169186466111291</v>
       </c>
       <c r="W68" s="12"/>
       <c r="X68" s="12"/>
@@ -5567,8 +5602,8 @@
       <c r="Z68" s="14"/>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A69" s="57" t="s">
-        <v>59</v>
+      <c r="A69" s="59" t="s">
+        <v>56</v>
       </c>
       <c r="B69" s="15">
         <v>5.0000000000000001E-4</v>
@@ -5589,13 +5624,13 @@
         <v>0</v>
       </c>
       <c r="H69" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="I69" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="I69" s="32" t="s">
-        <v>27</v>
-      </c>
       <c r="J69" s="32" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="K69" s="32" t="s">
         <v>6</v>
@@ -5607,28 +5642,28 @@
         <v>6</v>
       </c>
       <c r="P69" s="46">
-        <v>507</v>
+        <v>378</v>
       </c>
       <c r="Q69" s="17">
-        <f t="shared" ref="Q69:Q86" si="12">1-(P69+0.0000001)/9723</f>
-        <v>0.94785560011313386</v>
+        <f t="shared" si="12"/>
+        <v>0.96112311014090301</v>
       </c>
       <c r="R69" s="52">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="S69" s="46">
-        <v>4753</v>
+        <v>4458</v>
       </c>
       <c r="T69" s="50">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="U69" s="30">
-        <f t="shared" ref="U69:U86" si="13">1-(T69+0.0000001)/(S69+0.0000001)</f>
-        <v>0.99768567218603654</v>
+        <f t="shared" si="13"/>
+        <v>0.99865410495741014</v>
       </c>
       <c r="V69" s="18">
-        <f t="shared" ref="V69:V86" si="14">(S69-T69+0.0000001)/9723</f>
-        <v>0.48770955467448318</v>
+        <f t="shared" si="14"/>
+        <v>0.45788336934073842</v>
       </c>
       <c r="W69" s="17"/>
       <c r="X69" s="17"/>
@@ -5636,7 +5671,7 @@
       <c r="Z69" s="18"/>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A70" s="58"/>
+      <c r="A70" s="60"/>
       <c r="B70" s="1">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -5656,13 +5691,13 @@
         <v>4</v>
       </c>
       <c r="H70" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="I70" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="I70" s="28" t="s">
-        <v>55</v>
-      </c>
       <c r="J70" s="28" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="K70" s="28" t="s">
         <v>6</v>
@@ -5674,28 +5709,28 @@
         <v>6</v>
       </c>
       <c r="P70" s="44">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q70" s="4">
         <f t="shared" si="12"/>
-        <v>0.97685899412732691</v>
+        <v>0.97665329629743902</v>
       </c>
       <c r="R70" s="53">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="S70" s="44">
-        <v>8376</v>
+        <v>8134</v>
       </c>
       <c r="T70" s="44">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="U70" s="4">
         <f t="shared" si="13"/>
-        <v>0.99868672396133373</v>
+        <v>0.99926235553234244</v>
       </c>
       <c r="V70" s="5">
         <f t="shared" si="14"/>
-        <v>0.86033117351640453</v>
+        <v>0.8359559806746889</v>
       </c>
       <c r="W70" s="4"/>
       <c r="X70" s="4"/>
@@ -5703,7 +5738,7 @@
       <c r="Z70" s="5"/>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A71" s="58"/>
+      <c r="A71" s="60"/>
       <c r="B71" s="1">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -5723,13 +5758,13 @@
         <v>4</v>
       </c>
       <c r="H71" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="I71" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="I71" s="28" t="s">
-        <v>55</v>
-      </c>
       <c r="J71" s="28" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="K71" s="28" t="s">
         <v>6</v>
@@ -5741,28 +5776,28 @@
         <v>6</v>
       </c>
       <c r="P71" s="44">
-        <v>190</v>
+        <v>228</v>
       </c>
       <c r="Q71" s="4">
         <f t="shared" si="12"/>
-        <v>0.98045870615036512</v>
+        <v>0.97655044738249508</v>
       </c>
       <c r="R71" s="53">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="S71" s="44">
-        <v>8425</v>
+        <v>8231</v>
       </c>
       <c r="T71" s="44">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="U71" s="4">
         <f t="shared" si="13"/>
-        <v>0.9985756676439338</v>
+        <v>0.99902806462156446</v>
       </c>
       <c r="V71" s="5">
         <f t="shared" si="14"/>
-        <v>0.865267921433714</v>
+        <v>0.84572662759436401</v>
       </c>
       <c r="W71" s="4"/>
       <c r="X71" s="4"/>
@@ -5770,7 +5805,7 @@
       <c r="Z71" s="5"/>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A72" s="59"/>
+      <c r="A72" s="61"/>
       <c r="B72" s="10">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -5790,13 +5825,13 @@
         <v>4</v>
       </c>
       <c r="H72" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I72" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="I72" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="J72" s="29" t="s">
-        <v>6</v>
+      <c r="J72" s="11" t="s">
+        <v>53</v>
       </c>
       <c r="K72" s="11" t="s">
         <v>6</v>
@@ -5808,28 +5843,28 @@
         <v>6</v>
       </c>
       <c r="P72" s="43">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="Q72" s="12">
         <f t="shared" si="12"/>
-        <v>0.98025300832047724</v>
+        <v>0.97747608761699067</v>
       </c>
       <c r="R72" s="54">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="S72" s="43">
-        <v>8286</v>
+        <v>7843</v>
       </c>
       <c r="T72" s="47">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U72" s="20">
         <f t="shared" si="13"/>
-        <v>0.99939657251992042</v>
+        <v>0.99910748436823782</v>
       </c>
       <c r="V72" s="13">
         <f t="shared" si="14"/>
-        <v>0.85169186466111291</v>
+        <v>0.8059240975110562</v>
       </c>
       <c r="W72" s="12"/>
       <c r="X72" s="12"/>
@@ -5837,7 +5872,7 @@
       <c r="Z72" s="14"/>
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A73" s="57" t="s">
+      <c r="A73" s="59" t="s">
         <v>58</v>
       </c>
       <c r="B73" s="15">
@@ -5859,16 +5894,16 @@
         <v>0</v>
       </c>
       <c r="H73" s="32" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I73" s="32" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="J73" s="32" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="K73" s="32" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="L73" s="32"/>
       <c r="M73" s="32"/>
@@ -5877,28 +5912,28 @@
         <v>6</v>
       </c>
       <c r="P73" s="46">
-        <v>378</v>
+        <v>322</v>
       </c>
       <c r="Q73" s="17">
         <f t="shared" si="12"/>
-        <v>0.96112311014090301</v>
+        <v>0.96688264937776403</v>
       </c>
       <c r="R73" s="52">
-        <v>0.87</v>
+        <v>0.98</v>
       </c>
       <c r="S73" s="46">
-        <v>4458</v>
+        <v>4404</v>
       </c>
       <c r="T73" s="50">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U73" s="30">
         <f t="shared" si="13"/>
-        <v>0.99865410495741014</v>
+        <v>0.99999999997729339</v>
       </c>
       <c r="V73" s="18">
         <f t="shared" si="14"/>
-        <v>0.45788336934073842</v>
+        <v>0.45294662142342895</v>
       </c>
       <c r="W73" s="17"/>
       <c r="X73" s="17"/>
@@ -5906,7 +5941,7 @@
       <c r="Z73" s="18"/>
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A74" s="58"/>
+      <c r="A74" s="60"/>
       <c r="B74" s="1">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -5926,16 +5961,16 @@
         <v>4</v>
       </c>
       <c r="H74" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="I74" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="J74" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="K74" s="28" t="s">
         <v>53</v>
-      </c>
-      <c r="I74" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="J74" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="K74" s="28" t="s">
-        <v>6</v>
       </c>
       <c r="L74" s="28"/>
       <c r="M74" s="28"/>
@@ -5944,28 +5979,28 @@
         <v>6</v>
       </c>
       <c r="P74" s="44">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="Q74" s="4">
         <f t="shared" si="12"/>
-        <v>0.97665329629743902</v>
+        <v>0.97891597242620587</v>
       </c>
       <c r="R74" s="53">
-        <v>0.87</v>
+        <v>0.98</v>
       </c>
       <c r="S74" s="44">
-        <v>8134</v>
+        <v>7947</v>
       </c>
       <c r="T74" s="44">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U74" s="4">
         <f t="shared" si="13"/>
-        <v>0.99926235553234244</v>
+        <v>0.99937083174783725</v>
       </c>
       <c r="V74" s="5">
         <f t="shared" si="14"/>
-        <v>0.8359559806746889</v>
+        <v>0.81682608249511468</v>
       </c>
       <c r="W74" s="4"/>
       <c r="X74" s="4"/>
@@ -5973,7 +6008,7 @@
       <c r="Z74" s="5"/>
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A75" s="58"/>
+      <c r="A75" s="60"/>
       <c r="B75" s="1">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -5993,16 +6028,16 @@
         <v>4</v>
       </c>
       <c r="H75" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="I75" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="J75" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="K75" s="28" t="s">
         <v>53</v>
-      </c>
-      <c r="I75" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="J75" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="K75" s="28" t="s">
-        <v>6</v>
       </c>
       <c r="L75" s="28"/>
       <c r="M75" s="28"/>
@@ -6011,28 +6046,28 @@
         <v>6</v>
       </c>
       <c r="P75" s="44">
-        <v>228</v>
-      </c>
-      <c r="Q75" s="4">
+        <v>171</v>
+      </c>
+      <c r="Q75" s="7">
         <f t="shared" si="12"/>
-        <v>0.97655044738249508</v>
+        <v>0.98241283553430014</v>
       </c>
       <c r="R75" s="53">
-        <v>0.87</v>
+        <v>0.98</v>
       </c>
       <c r="S75" s="44">
-        <v>8231</v>
+        <v>8341</v>
       </c>
       <c r="T75" s="44">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U75" s="4">
         <f t="shared" si="13"/>
-        <v>0.99902806462156446</v>
+        <v>0.9991607720776986</v>
       </c>
       <c r="V75" s="5">
         <f t="shared" si="14"/>
-        <v>0.84572662759436401</v>
+        <v>0.85714285715314209</v>
       </c>
       <c r="W75" s="4"/>
       <c r="X75" s="4"/>
@@ -6040,7 +6075,7 @@
       <c r="Z75" s="5"/>
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A76" s="59"/>
+      <c r="A76" s="61"/>
       <c r="B76" s="10">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -6060,16 +6095,16 @@
         <v>4</v>
       </c>
       <c r="H76" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I76" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="J76" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="K76" s="11" t="s">
         <v>53</v>
-      </c>
-      <c r="I76" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="J76" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="K76" s="11" t="s">
-        <v>6</v>
       </c>
       <c r="L76" s="11"/>
       <c r="M76" s="11"/>
@@ -6078,28 +6113,28 @@
         <v>6</v>
       </c>
       <c r="P76" s="43">
-        <v>219</v>
+        <v>173</v>
       </c>
       <c r="Q76" s="12">
         <f t="shared" si="12"/>
-        <v>0.97747608761699067</v>
+        <v>0.98220713770441226</v>
       </c>
       <c r="R76" s="54">
-        <v>0.87</v>
+        <v>0.98</v>
       </c>
       <c r="S76" s="43">
-        <v>7843</v>
+        <v>8474</v>
       </c>
       <c r="T76" s="47">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U76" s="20">
         <f t="shared" si="13"/>
-        <v>0.99910748436823782</v>
+        <v>0.99929195184093356</v>
       </c>
       <c r="V76" s="13">
         <f t="shared" si="14"/>
-        <v>0.8059240975110562</v>
+        <v>0.87092461175563107</v>
       </c>
       <c r="W76" s="12"/>
       <c r="X76" s="12"/>
@@ -6107,8 +6142,8 @@
       <c r="Z76" s="14"/>
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A77" s="57" t="s">
-        <v>60</v>
+      <c r="A77" s="59" t="s">
+        <v>59</v>
       </c>
       <c r="B77" s="15">
         <v>5.0000000000000001E-4</v>
@@ -6129,16 +6164,16 @@
         <v>0</v>
       </c>
       <c r="H77" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="I77" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="I77" s="32" t="s">
-        <v>6</v>
-      </c>
       <c r="J77" s="32" t="s">
         <v>6</v>
       </c>
       <c r="K77" s="32" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="L77" s="32"/>
       <c r="M77" s="32"/>
@@ -6147,28 +6182,28 @@
         <v>6</v>
       </c>
       <c r="P77" s="46">
-        <v>322</v>
+        <v>383</v>
       </c>
       <c r="Q77" s="17">
         <f t="shared" si="12"/>
-        <v>0.96688264937776403</v>
+        <v>0.9606088655661833</v>
       </c>
       <c r="R77" s="52">
-        <v>0.98</v>
+        <v>0.83</v>
       </c>
       <c r="S77" s="46">
-        <v>4404</v>
+        <v>4711</v>
       </c>
       <c r="T77" s="50">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="U77" s="30">
         <f t="shared" si="13"/>
-        <v>0.99999999997729339</v>
+        <v>0.99554234767574734</v>
       </c>
       <c r="V77" s="18">
         <f t="shared" si="14"/>
-        <v>0.45294662142342895</v>
+        <v>0.48236141109739789</v>
       </c>
       <c r="W77" s="17"/>
       <c r="X77" s="17"/>
@@ -6176,7 +6211,7 @@
       <c r="Z77" s="18"/>
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A78" s="58"/>
+      <c r="A78" s="60"/>
       <c r="B78" s="1">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -6196,16 +6231,16 @@
         <v>4</v>
       </c>
       <c r="H78" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="I78" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="I78" s="28" t="s">
-        <v>6</v>
-      </c>
       <c r="J78" s="28" t="s">
         <v>6</v>
       </c>
       <c r="K78" s="28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L78" s="28"/>
       <c r="M78" s="28"/>
@@ -6214,28 +6249,28 @@
         <v>6</v>
       </c>
       <c r="P78" s="44">
-        <v>205</v>
+        <v>333</v>
       </c>
       <c r="Q78" s="4">
         <f t="shared" si="12"/>
-        <v>0.97891597242620587</v>
+        <v>0.96575131131338066</v>
       </c>
       <c r="R78" s="53">
-        <v>0.98</v>
+        <v>0.83</v>
       </c>
       <c r="S78" s="44">
-        <v>7947</v>
+        <v>6347</v>
       </c>
       <c r="T78" s="44">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="U78" s="4">
         <f t="shared" si="13"/>
-        <v>0.99937083174783725</v>
+        <v>0.99527335747604739</v>
       </c>
       <c r="V78" s="5">
         <f t="shared" si="14"/>
-        <v>0.81682608249511468</v>
+        <v>0.6496965957112002</v>
       </c>
       <c r="W78" s="4"/>
       <c r="X78" s="4"/>
@@ -6243,7 +6278,7 @@
       <c r="Z78" s="5"/>
     </row>
     <row r="79" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A79" s="58"/>
+      <c r="A79" s="60"/>
       <c r="B79" s="1">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -6263,16 +6298,16 @@
         <v>4</v>
       </c>
       <c r="H79" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="I79" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="I79" s="28" t="s">
-        <v>6</v>
-      </c>
       <c r="J79" s="28" t="s">
         <v>6</v>
       </c>
       <c r="K79" s="28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L79" s="28"/>
       <c r="M79" s="28"/>
@@ -6281,28 +6316,28 @@
         <v>6</v>
       </c>
       <c r="P79" s="44">
-        <v>171</v>
-      </c>
-      <c r="Q79" s="7">
+        <v>225</v>
+      </c>
+      <c r="Q79" s="4">
         <f t="shared" si="12"/>
-        <v>0.98241283553430014</v>
+        <v>0.97685899412732691</v>
       </c>
       <c r="R79" s="53">
-        <v>0.98</v>
+        <v>0.83</v>
       </c>
       <c r="S79" s="44">
-        <v>8341</v>
+        <v>8355</v>
       </c>
       <c r="T79" s="44">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="U79" s="4">
         <f t="shared" si="13"/>
-        <v>0.9991607720776986</v>
+        <v>0.99856373427889211</v>
       </c>
       <c r="V79" s="5">
         <f t="shared" si="14"/>
-        <v>0.85714285715314209</v>
+        <v>0.85806849738763769</v>
       </c>
       <c r="W79" s="4"/>
       <c r="X79" s="4"/>
@@ -6310,282 +6345,282 @@
       <c r="Z79" s="5"/>
     </row>
     <row r="80" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A80" s="59"/>
-      <c r="B80" s="10">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C80" s="11">
+      <c r="A80" s="60"/>
+      <c r="B80" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C80" s="2">
         <v>200</v>
       </c>
-      <c r="D80" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="E80" s="23" t="s">
+      <c r="D80" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E80" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F80" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="G80" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H80" s="11" t="s">
+      <c r="F80" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G80" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="H80" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="I80" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="I80" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="J80" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="K80" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="L80" s="11"/>
-      <c r="M80" s="11"/>
-      <c r="N80" s="11"/>
-      <c r="O80" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="P80" s="43">
-        <v>173</v>
-      </c>
-      <c r="Q80" s="12">
+      <c r="J80" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="K80" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="L80" s="28"/>
+      <c r="M80" s="28"/>
+      <c r="N80" s="28"/>
+      <c r="O80" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="P80" s="44">
+        <v>211</v>
+      </c>
+      <c r="Q80" s="4">
         <f t="shared" si="12"/>
-        <v>0.98220713770441226</v>
-      </c>
-      <c r="R80" s="54">
-        <v>0.98</v>
-      </c>
-      <c r="S80" s="43">
-        <v>8474</v>
-      </c>
-      <c r="T80" s="47">
-        <v>6</v>
-      </c>
-      <c r="U80" s="20">
+        <v>0.97829887893654222</v>
+      </c>
+      <c r="R80" s="53">
+        <v>0.83</v>
+      </c>
+      <c r="S80" s="44">
+        <v>8045</v>
+      </c>
+      <c r="T80" s="44">
+        <v>6</v>
+      </c>
+      <c r="U80" s="4">
         <f t="shared" si="13"/>
-        <v>0.99929195184093356</v>
-      </c>
-      <c r="V80" s="13">
+        <v>0.9992541951398477</v>
+      </c>
+      <c r="V80" s="5">
         <f t="shared" si="14"/>
-        <v>0.87092461175563107</v>
-      </c>
-      <c r="W80" s="12"/>
-      <c r="X80" s="12"/>
-      <c r="Y80" s="12"/>
-      <c r="Z80" s="14"/>
+        <v>0.82680242724467756</v>
+      </c>
+      <c r="W80" s="4"/>
+      <c r="X80" s="4"/>
+      <c r="Y80" s="4"/>
+      <c r="Z80" s="5"/>
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A81" s="57" t="s">
-        <v>61</v>
-      </c>
-      <c r="B81" s="15">
+      <c r="A81" s="60"/>
+      <c r="B81" s="1">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="C81" s="2">
+        <v>260</v>
+      </c>
+      <c r="D81" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F81" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G81" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="H81" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="I81" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="J81" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="K81" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="L81" s="28"/>
+      <c r="M81" s="28"/>
+      <c r="N81" s="28"/>
+      <c r="O81" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="P81" s="44">
+        <v>206</v>
+      </c>
+      <c r="Q81" s="4">
+        <f t="shared" si="12"/>
+        <v>0.97881312351126193</v>
+      </c>
+      <c r="R81" s="53">
+        <v>0.83</v>
+      </c>
+      <c r="S81" s="44">
+        <v>8469</v>
+      </c>
+      <c r="T81" s="44">
+        <v>5</v>
+      </c>
+      <c r="U81" s="7">
+        <f t="shared" si="13"/>
+        <v>0.99940961151258223</v>
+      </c>
+      <c r="V81" s="8">
+        <f t="shared" si="14"/>
+        <v>0.8705132160958553</v>
+      </c>
+      <c r="W81" s="4"/>
+      <c r="X81" s="4"/>
+      <c r="Y81" s="4"/>
+      <c r="Z81" s="5"/>
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A82" s="61"/>
+      <c r="B82" s="10">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C82" s="11">
+        <v>300</v>
+      </c>
+      <c r="D82" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E82" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F82" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G82" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H82" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I82" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="J82" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="K82" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L82" s="11"/>
+      <c r="M82" s="11"/>
+      <c r="N82" s="11"/>
+      <c r="O82" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="P82" s="43">
+        <v>207</v>
+      </c>
+      <c r="Q82" s="12">
+        <f t="shared" si="12"/>
+        <v>0.97871027459631799</v>
+      </c>
+      <c r="R82" s="54">
+        <v>0.83</v>
+      </c>
+      <c r="S82" s="43">
+        <v>8539</v>
+      </c>
+      <c r="T82" s="47">
+        <v>6</v>
+      </c>
+      <c r="U82" s="36">
+        <f t="shared" si="13"/>
+        <v>0.99929734159738492</v>
+      </c>
+      <c r="V82" s="37">
+        <f t="shared" si="14"/>
+        <v>0.87760979122698768</v>
+      </c>
+      <c r="W82" s="12"/>
+      <c r="X82" s="12"/>
+      <c r="Y82" s="12"/>
+      <c r="Z82" s="14"/>
+    </row>
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A83" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="B83" s="15">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C83" s="2">
         <v>80</v>
       </c>
-      <c r="D81" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E81" s="22" t="s">
+      <c r="D83" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E83" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="F81" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="G81" s="32" t="s">
+      <c r="F83" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G83" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="H81" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="I81" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="J81" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="K81" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="L81" s="32"/>
-      <c r="M81" s="32"/>
-      <c r="N81" s="32"/>
-      <c r="O81" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="P81" s="46">
-        <v>383</v>
-      </c>
-      <c r="Q81" s="17">
-        <f t="shared" si="12"/>
-        <v>0.9606088655661833</v>
-      </c>
-      <c r="R81" s="52">
-        <v>0.83</v>
-      </c>
-      <c r="S81" s="46">
-        <v>4711</v>
-      </c>
-      <c r="T81" s="50">
-        <v>21</v>
-      </c>
-      <c r="U81" s="30">
-        <f t="shared" si="13"/>
-        <v>0.99554234767574734</v>
-      </c>
-      <c r="V81" s="18">
-        <f t="shared" si="14"/>
-        <v>0.48236141109739789</v>
-      </c>
-      <c r="W81" s="17"/>
-      <c r="X81" s="17"/>
-      <c r="Y81" s="17"/>
-      <c r="Z81" s="18"/>
-    </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A82" s="58"/>
-      <c r="B82" s="1">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C82" s="2">
+      <c r="H83" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="I83" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="J83" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="K83" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="L83" s="32"/>
+      <c r="M83" s="32"/>
+      <c r="N83" s="32"/>
+      <c r="O83" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="P83" s="46">
+        <v>326</v>
+      </c>
+      <c r="Q83" s="17">
+        <f>1-(P83+0.0000001)/9723</f>
+        <v>0.96647125371798825</v>
+      </c>
+      <c r="R83" s="52">
+        <v>0.95</v>
+      </c>
+      <c r="S83" s="46">
+        <v>5202</v>
+      </c>
+      <c r="T83" s="50">
+        <v>0</v>
+      </c>
+      <c r="U83" s="30">
+        <f>1-(T83+0.0000001)/(S83+0.0000001)</f>
+        <v>0.9999999999807766</v>
+      </c>
+      <c r="V83" s="18">
+        <f>(S83-T83+0.0000001)/9723</f>
+        <v>0.53502005554869891</v>
+      </c>
+      <c r="W83" s="17"/>
+      <c r="X83" s="17"/>
+      <c r="Y83" s="17"/>
+      <c r="Z83" s="18"/>
+    </row>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A84" s="60"/>
+      <c r="B84" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C84" s="2">
         <v>120</v>
-      </c>
-      <c r="D82" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="E82" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F82" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="G82" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="H82" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="I82" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="J82" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="K82" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="L82" s="28"/>
-      <c r="M82" s="28"/>
-      <c r="N82" s="28"/>
-      <c r="O82" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="P82" s="44">
-        <v>333</v>
-      </c>
-      <c r="Q82" s="4">
-        <f t="shared" si="12"/>
-        <v>0.96575131131338066</v>
-      </c>
-      <c r="R82" s="53">
-        <v>0.83</v>
-      </c>
-      <c r="S82" s="44">
-        <v>6347</v>
-      </c>
-      <c r="T82" s="44">
-        <v>30</v>
-      </c>
-      <c r="U82" s="4">
-        <f t="shared" si="13"/>
-        <v>0.99527335747604739</v>
-      </c>
-      <c r="V82" s="5">
-        <f t="shared" si="14"/>
-        <v>0.6496965957112002</v>
-      </c>
-      <c r="W82" s="4"/>
-      <c r="X82" s="4"/>
-      <c r="Y82" s="4"/>
-      <c r="Z82" s="5"/>
-    </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A83" s="58"/>
-      <c r="B83" s="1">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C83" s="2">
-        <v>160</v>
-      </c>
-      <c r="D83" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="E83" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F83" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="G83" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="H83" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="I83" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="J83" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="K83" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="L83" s="28"/>
-      <c r="M83" s="28"/>
-      <c r="N83" s="28"/>
-      <c r="O83" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="P83" s="44">
-        <v>225</v>
-      </c>
-      <c r="Q83" s="4">
-        <f t="shared" si="12"/>
-        <v>0.97685899412732691</v>
-      </c>
-      <c r="R83" s="53">
-        <v>0.83</v>
-      </c>
-      <c r="S83" s="44">
-        <v>8355</v>
-      </c>
-      <c r="T83" s="44">
-        <v>12</v>
-      </c>
-      <c r="U83" s="4">
-        <f t="shared" si="13"/>
-        <v>0.99856373427889211</v>
-      </c>
-      <c r="V83" s="5">
-        <f t="shared" si="14"/>
-        <v>0.85806849738763769</v>
-      </c>
-      <c r="W83" s="4"/>
-      <c r="X83" s="4"/>
-      <c r="Y83" s="4"/>
-      <c r="Z83" s="5"/>
-    </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A84" s="58"/>
-      <c r="B84" s="1">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C84" s="2">
-        <v>200</v>
       </c>
       <c r="D84" s="25" t="s">
         <v>4</v>
@@ -6600,46 +6635,46 @@
         <v>4</v>
       </c>
       <c r="H84" s="28" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="I84" s="28" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="J84" s="28" t="s">
         <v>6</v>
       </c>
       <c r="K84" s="28" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="L84" s="28"/>
       <c r="M84" s="28"/>
       <c r="N84" s="28"/>
       <c r="O84" s="41" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="P84" s="44">
-        <v>211</v>
+        <v>418</v>
       </c>
       <c r="Q84" s="4">
-        <f t="shared" si="12"/>
-        <v>0.97829887893654222</v>
+        <f>1-(P84+0.0000001)/9723</f>
+        <v>0.95700915354314509</v>
       </c>
       <c r="R84" s="53">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="S84" s="44">
-        <v>8045</v>
+        <v>6474</v>
       </c>
       <c r="T84" s="44">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U84" s="4">
-        <f t="shared" si="13"/>
-        <v>0.9992541951398477</v>
+        <f>1-(T84+0.0000001)/(S84+0.0000001)</f>
+        <v>0.99922767993513706</v>
       </c>
       <c r="V84" s="5">
-        <f t="shared" si="14"/>
-        <v>0.82680242724467756</v>
+        <f>(S84-T84+0.0000001)/9723</f>
+        <v>0.66532963078268026</v>
       </c>
       <c r="W84" s="4"/>
       <c r="X84" s="4"/>
@@ -6647,12 +6682,12 @@
       <c r="Z84" s="5"/>
     </row>
     <row r="85" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A85" s="58"/>
+      <c r="A85" s="60"/>
       <c r="B85" s="1">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="C85" s="2">
-        <v>260</v>
+        <v>160</v>
       </c>
       <c r="D85" s="25" t="s">
         <v>4</v>
@@ -6667,46 +6702,46 @@
         <v>4</v>
       </c>
       <c r="H85" s="28" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="I85" s="28" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="J85" s="28" t="s">
         <v>6</v>
       </c>
       <c r="K85" s="28" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="L85" s="28"/>
       <c r="M85" s="28"/>
       <c r="N85" s="28"/>
       <c r="O85" s="41" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="P85" s="44">
-        <v>206</v>
+        <v>244</v>
       </c>
       <c r="Q85" s="4">
-        <f t="shared" si="12"/>
-        <v>0.97881312351126193</v>
+        <f>1-(P85+0.0000001)/9723</f>
+        <v>0.974904864743392</v>
       </c>
       <c r="R85" s="53">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="S85" s="44">
-        <v>8469</v>
+        <v>8367</v>
       </c>
       <c r="T85" s="44">
-        <v>5</v>
-      </c>
-      <c r="U85" s="7">
-        <f t="shared" si="13"/>
-        <v>0.99940961151258223</v>
-      </c>
-      <c r="V85" s="8">
-        <f t="shared" si="14"/>
-        <v>0.8705132160958553</v>
+        <v>15</v>
+      </c>
+      <c r="U85" s="4">
+        <f>1-(T85+0.0000001)/(S85+0.0000001)</f>
+        <v>0.9982072427274028</v>
+      </c>
+      <c r="V85" s="5">
+        <f>(S85-T85+0.0000001)/9723</f>
+        <v>0.85899413762213317</v>
       </c>
       <c r="W85" s="4"/>
       <c r="X85" s="4"/>
@@ -6714,100 +6749,211 @@
       <c r="Z85" s="5"/>
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A86" s="59"/>
-      <c r="B86" s="10">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C86" s="11">
+      <c r="A86" s="60"/>
+      <c r="B86" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C86" s="2">
+        <v>200</v>
+      </c>
+      <c r="D86" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E86" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F86" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G86" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="H86" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="I86" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="J86" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="K86" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="L86" s="28"/>
+      <c r="M86" s="28"/>
+      <c r="N86" s="28"/>
+      <c r="O86" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="P86" s="44">
+        <v>218</v>
+      </c>
+      <c r="Q86" s="4">
+        <f>1-(P86+0.0000001)/9723</f>
+        <v>0.97757893653193462</v>
+      </c>
+      <c r="R86" s="53">
+        <v>0.95</v>
+      </c>
+      <c r="S86" s="44">
+        <v>8254</v>
+      </c>
+      <c r="T86" s="44">
+        <v>4</v>
+      </c>
+      <c r="U86" s="4">
+        <f>1-(T86+0.0000001)/(S86+0.0000001)</f>
+        <v>0.99951538646717331</v>
+      </c>
+      <c r="V86" s="5">
+        <f>(S86-T86+0.0000001)/9723</f>
+        <v>0.84850354829785057</v>
+      </c>
+      <c r="W86" s="4"/>
+      <c r="X86" s="4"/>
+      <c r="Y86" s="4"/>
+      <c r="Z86" s="5"/>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A87" s="60"/>
+      <c r="B87" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C87" s="2">
+        <v>260</v>
+      </c>
+      <c r="D87" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E87" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F87" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G87" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="H87" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="I87" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="J87" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="K87" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="L87" s="28"/>
+      <c r="M87" s="28"/>
+      <c r="N87" s="28"/>
+      <c r="O87" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="P87" s="44">
+        <v>210</v>
+      </c>
+      <c r="Q87" s="4">
+        <f>1-(P87+0.0000001)/9723</f>
+        <v>0.97840172785148616</v>
+      </c>
+      <c r="R87" s="53">
+        <v>0.95</v>
+      </c>
+      <c r="S87" s="44">
+        <v>8629</v>
+      </c>
+      <c r="T87" s="44">
+        <v>7</v>
+      </c>
+      <c r="U87" s="7">
+        <f>1-(T87+0.0000001)/(S87+0.0000001)</f>
+        <v>0.9991887820025589</v>
+      </c>
+      <c r="V87" s="8">
+        <f>(S87-T87+0.0000001)/9723</f>
+        <v>0.88676334465699891</v>
+      </c>
+      <c r="W87" s="4"/>
+      <c r="X87" s="4"/>
+      <c r="Y87" s="4"/>
+      <c r="Z87" s="5"/>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A88" s="61"/>
+      <c r="B88" s="10">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C88" s="11">
         <v>300</v>
       </c>
-      <c r="D86" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="E86" s="23" t="s">
+      <c r="D88" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E88" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="F86" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="G86" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H86" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="I86" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="J86" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="K86" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="L86" s="11"/>
-      <c r="M86" s="11"/>
-      <c r="N86" s="11"/>
-      <c r="O86" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="P86" s="43">
-        <v>207</v>
-      </c>
-      <c r="Q86" s="12">
-        <f t="shared" si="12"/>
-        <v>0.97871027459631799</v>
-      </c>
-      <c r="R86" s="54">
-        <v>0.83</v>
-      </c>
-      <c r="S86" s="43">
-        <v>8539</v>
-      </c>
-      <c r="T86" s="47">
-        <v>6</v>
-      </c>
-      <c r="U86" s="36">
-        <f t="shared" si="13"/>
-        <v>0.99929734159738492</v>
-      </c>
-      <c r="V86" s="37">
-        <f t="shared" si="14"/>
-        <v>0.87760979122698768</v>
-      </c>
-      <c r="W86" s="12"/>
-      <c r="X86" s="12"/>
-      <c r="Y86" s="12"/>
-      <c r="Z86" s="14"/>
+      <c r="F88" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G88" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H88" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="I88" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J88" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="K88" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="L88" s="11"/>
+      <c r="M88" s="11"/>
+      <c r="N88" s="11"/>
+      <c r="O88" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="P88" s="43">
+        <v>213</v>
+      </c>
+      <c r="Q88" s="12">
+        <f>1-(P88+0.0000001)/9723</f>
+        <v>0.97809318110665433</v>
+      </c>
+      <c r="R88" s="54">
+        <v>0.96</v>
+      </c>
+      <c r="S88" s="43">
+        <v>8621</v>
+      </c>
+      <c r="T88" s="47">
+        <v>5</v>
+      </c>
+      <c r="U88" s="57">
+        <f>1-(T88+0.0000001)/(S88+0.0000001)</f>
+        <v>0.99942002086765547</v>
+      </c>
+      <c r="V88" s="58">
+        <f>(S88-T88+0.0000001)/9723</f>
+        <v>0.88614625116733525</v>
+      </c>
+      <c r="W88" s="12"/>
+      <c r="X88" s="12"/>
+      <c r="Y88" s="12"/>
+      <c r="Z88" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A81:A86"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="A69:A72"/>
-    <mergeCell ref="A73:A76"/>
-    <mergeCell ref="A77:A80"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="P1:V1"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="N1:N2"/>
     <mergeCell ref="A49:A52"/>
     <mergeCell ref="A53:A56"/>
-    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A83:A88"/>
     <mergeCell ref="A45:A48"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A3:A6"/>
@@ -6820,6 +6966,29 @@
     <mergeCell ref="A31:A34"/>
     <mergeCell ref="A35:A38"/>
     <mergeCell ref="A39:A44"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="P1:V1"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A77:A82"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="A69:A72"/>
+    <mergeCell ref="A73:A76"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
